--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_195.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_195.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29078-d75479-Reviews-Days_Inn_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>191</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Alhambra-CA.h19767.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_195.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_195.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="689">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1983 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r577261926-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>29078</t>
+  </si>
+  <si>
+    <t>75479</t>
+  </si>
+  <si>
+    <t>577261926</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Adequate for economy stay</t>
+  </si>
+  <si>
+    <t>To keep my personal travel expenses down, I stayed here to be within a 5 minute drive to my father's assisted living community. This place did the trick. The exterior decor and room interiors have an aged fill to them, but overall my room was fine. While in need of some freshening up, overall my room was fine. There is traffic noise, being a half block to Main St, and the air conditioner was noisy. So, I slept with air plugs to block the noise. There is parking but it is limited, it gets filled in the evening. The positives include a very convenient location and the staff was very helpful and friendly. The main negative was the terrible breakfast provided, very limited and sad selections - I ended up going to a nearby Starbucks. Overall, this place served its purpose, but I would probably not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>To keep my personal travel expenses down, I stayed here to be within a 5 minute drive to my father's assisted living community. This place did the trick. The exterior decor and room interiors have an aged fill to them, but overall my room was fine. While in need of some freshening up, overall my room was fine. There is traffic noise, being a half block to Main St, and the air conditioner was noisy. So, I slept with air plugs to block the noise. There is parking but it is limited, it gets filled in the evening. The positives include a very convenient location and the staff was very helpful and friendly. The main negative was the terrible breakfast provided, very limited and sad selections - I ended up going to a nearby Starbucks. Overall, this place served its purpose, but I would probably not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r573859593-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>573859593</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Stayed Daughter was having surgery at USC hospital.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed two nights got more for our money . We went home with bed bug bites all over us ..stayed in room 308 . Contacted office .phone calls /text message sent pictures . That was2 days ago no response from them . </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r568538396-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>568538396</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Just a walk away for great food!</t>
+  </si>
+  <si>
+    <t>Average room. Quite location. Nest door to a great haywain food restaurant and a Starbucks and a wealth of various places to eat. Nice variety as to cuisine and to cost.Our favorite place for breakfast and lunches LOVEBIRDS bakery - just 1 block away.Grad place to stay for business.  City Hall is just 2 blacks away.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r561766724-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>561766724</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>great for the price. very friendly. not much parking but got us a parking spot. very nice and considerate management</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r550981615-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>550981615</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>In the middle of everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms kinda small but kept clean the hotel is in the middle of town there’s a pizza place right down the street and a star bucks very friendly at check in and understand English </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r542899986-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>542899986</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I come down here every other month for business and I like to stay around here because it's close to the Asian Restaurants I like to eat at.  I needed to do a same day cancellation which when booking you need a 24 hour notice to cancel a reservation. Front desk was very cool about it canceled my reservation no problem. I am happy to say I will be returning next week and staying here again. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r537942687-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>537942687</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r537688902-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>537688902</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Happy with the experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was spacious and clean and the bed was comfortable. Although other reviews warned about a lack of parking, I had no issues the two nights I was there. The staff was kind and helpful. The only issue I had was that I found it to be a little noisy, but if you are a heavy sleeper, you will not notice. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r529640003-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>529640003</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Previous Customer</t>
+  </si>
+  <si>
+    <t>I am a regular at the days Inn through out the years. Staff is professional and friendly and the rooms are always clean</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r512291296-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>512291296</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Great deal</t>
+  </si>
+  <si>
+    <t>Reservation online was easy , we booked last minute so prices were higher then normal but still a great deal for what you get . Room was clean , everything as expected from days inn . I love booking with them because of small things like having a microwave , iron , hair dryer and bonus they had a washer and dryer . After a messy and stinky visit to the beach washing our towels was heaven sent .. Bonus they have breakfast in the office until 10am . The office staff were actually nice and calm guys , compared to other hotel staff around the same area they were great .!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Reservation online was easy , we booked last minute so prices were higher then normal but still a great deal for what you get . Room was clean , everything as expected from days inn . I love booking with them because of small things like having a microwave , iron , hair dryer and bonus they had a washer and dryer . After a messy and stinky visit to the beach washing our towels was heaven sent .. Bonus they have breakfast in the office until 10am . The office staff were actually nice and calm guys , compared to other hotel staff around the same area they were great .!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r510779718-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>510779718</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Overnight Stay After Dodger Game</t>
+  </si>
+  <si>
+    <t>This facility was better than anticipated, and defiantly surpasses my overall experiences at many "Day's Inn", please note that I have Diamond Status at Wyndham which is Days Parent Company.I stayed at this location using partial points, there is not enough parking, no swimming pool, an average breakfast, but my room was really really good!I would recommend this property to any overnight traveler in the Alhambra area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r507937852-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>507937852</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Would stay again. Parking limited, employee was most helping, we needed to leave at 4 am, he moved cars &amp; helped me out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would stay again. Parking limited, employee was most helping, we needed to leave at 4 am, he moved cars &amp; helped me out Of the tight spot. Many eating places in walking distance and stay open late. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r499312023-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>499312023</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t>I stayed a week here and it was amazing. Everyone was so friendly and accomadating. Thank you Dave and Nick for being so understanding and kind. You guys are the best!! Will be back soon :).</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r487391293-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>487391293</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Perfect for Our Needs</t>
+  </si>
+  <si>
+    <t>We live near Los Angeles, yet occasionally book rooms near strategic locations due to traffic and urban congestion.  So when my wife needed to be in Alhambra for 7AM eye surgery, I went looking for a place that would put us where we needed to be with a minimum of hassle.  After lots of research on Trip Advisor, I chose Days Inn and it couldn't have turned out any better!  The location is perfect.  The room was quiet and comfortable.  Management was accommodating when I explained my situation.  At the time of booking, the jacuzzi room was available for a bit extra and believe me, that made for nice pampering to relax my wife before her surgery.  I'm constantly on the lookout for strategic motels in LA for concerts, early flights out of LAX and times when we visit Disneyland or a Dodgers game and just don't feel like fighting traffic.  I'm thrilled to add Days Inn, Alhambra to the list of locations I can turn to for a quiet, comfortable night at a reasonable price.  And if the jacuzzi happens to be available, so much the better!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>We live near Los Angeles, yet occasionally book rooms near strategic locations due to traffic and urban congestion.  So when my wife needed to be in Alhambra for 7AM eye surgery, I went looking for a place that would put us where we needed to be with a minimum of hassle.  After lots of research on Trip Advisor, I chose Days Inn and it couldn't have turned out any better!  The location is perfect.  The room was quiet and comfortable.  Management was accommodating when I explained my situation.  At the time of booking, the jacuzzi room was available for a bit extra and believe me, that made for nice pampering to relax my wife before her surgery.  I'm constantly on the lookout for strategic motels in LA for concerts, early flights out of LAX and times when we visit Disneyland or a Dodgers game and just don't feel like fighting traffic.  I'm thrilled to add Days Inn, Alhambra to the list of locations I can turn to for a quiet, comfortable night at a reasonable price.  And if the jacuzzi happens to be available, so much the better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r487166330-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>487166330</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Quiet Getaway</t>
+  </si>
+  <si>
+    <t>Came as a surprise visit. I was the one surprised by the location to Dtla, nice clean rooms. Slept like a baby woke up to breakfast. Price was a little higher than usual?</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r482750989-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>482750989</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>very nice stay</t>
+  </si>
+  <si>
+    <t>everything during our stay was nice. we were very much surprised at the cleanliness of the room.thank you for making our stay a very pleasant one</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r480087160-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>480087160</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and Clean</t>
+  </si>
+  <si>
+    <t>I would like to share with others that it was very hard to find a place to stay on our trip to visit our Son....when we finally got situated here it was worth the wait and we will return in the future...highly recommended....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r479604202-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>479604202</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Parking spaces limited, yet at walking distance of downtown with comfortable rooms</t>
+  </si>
+  <si>
+    <t>Each room has refrigerator and microwave. Wifi is included as well as new flat screen tv. Parking spots are limited and staff does best they can to accommodate vehicles. Only draw back is that in my room (303) the water was warm in the shower but temperature didn't get hotter when the dial was turned further on hot. Price reasonable for the location, room amenities and staff service. They did a good job. Continental breakfast available. Plenty of restaurants and shops around too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r476769111-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>476769111</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Central location</t>
+  </si>
+  <si>
+    <t>Stayed here for a friend's wedding. The room was clean, comfortable and was located in a great location. Staff was very friendly and accommodating. There's nothing fancy about this hotel but it's well maintained and is fairly priced for the room you get. They offer continental breakfast which is always a plus. The only negative thing I have to say is that the parking is extremely small and they only allow one car per room, so if you have additional guests, they will have to park in the parking structure across the street, which you're only allowed to park in until 2am or if you'd like to park in the street, you'll have to get an overnight Alhambra parking pass. (A tip: you can get the pass at any 7 eleven near Alhambra and just so you know, the permit is only required if you park between 2am and 6am on the street)MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a friend's wedding. The room was clean, comfortable and was located in a great location. Staff was very friendly and accommodating. There's nothing fancy about this hotel but it's well maintained and is fairly priced for the room you get. They offer continental breakfast which is always a plus. The only negative thing I have to say is that the parking is extremely small and they only allow one car per room, so if you have additional guests, they will have to park in the parking structure across the street, which you're only allowed to park in until 2am or if you'd like to park in the street, you'll have to get an overnight Alhambra parking pass. (A tip: you can get the pass at any 7 eleven near Alhambra and just so you know, the permit is only required if you park between 2am and 6am on the street)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r474830970-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>474830970</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>hidden stay</t>
+  </si>
+  <si>
+    <t>This place is great.  The rooms are clean and comfortable with a staff that is interested in your stay and comfort.  The area is great for food shops and try Carol's nails on 1st for a real manicure.  You are safe to walk the neighborhood and do not need your car to move around.  I think this is my best new place to stay in the greater LA area.  Make sure you visit Charlie's Trio cafe on the corner for a great happy hour where food and drinks are plentiful and priced well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r473951975-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>473951975</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>ONLY IF YOU HAVE TO</t>
+  </si>
+  <si>
+    <t>Last minute trip for family funeral in the area. Since I only needed 2 nights and only planned to sleep there and didn't want to pay 300 a night for "good" hotel, I took a chance.  Although my expectations were not high, I did envision a basic super 8/motel 6accommodation. Sorry to say, this place did not even rise to that level. The room was nothing like the photos displayed on their website. A king size bed, two night stands, a coffee table, a love seat, a tv stand, a mini fridge and more were so crammed into the small room, I literally had to walk sideways to get to the bathroom.  The furniture itself was thrift store quality and shabby.  The towels were threadbare, there was a large patch on the front of the tub where the porcelain had chipped off and was unrepaired.  The only good thing was that it WAS clean and well located to eateries and the center of town. Thus, the two stars. I checked out after night #1.  Would not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Last minute trip for family funeral in the area. Since I only needed 2 nights and only planned to sleep there and didn't want to pay 300 a night for "good" hotel, I took a chance.  Although my expectations were not high, I did envision a basic super 8/motel 6accommodation. Sorry to say, this place did not even rise to that level. The room was nothing like the photos displayed on their website. A king size bed, two night stands, a coffee table, a love seat, a tv stand, a mini fridge and more were so crammed into the small room, I literally had to walk sideways to get to the bathroom.  The furniture itself was thrift store quality and shabby.  The towels were threadbare, there was a large patch on the front of the tub where the porcelain had chipped off and was unrepaired.  The only good thing was that it WAS clean and well located to eateries and the center of town. Thus, the two stars. I checked out after night #1.  Would not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r463803910-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>463803910</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Last Minute Stay</t>
+  </si>
+  <si>
+    <t>The hotel is a little dated but the maintained well. The beds are very comfortable and the room is very comfortable.The location is near restaurants and bars. There is easy access to several freeways.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r460161752-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>460161752</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>good buy for your buck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was courteous, rooms were clean and comfortable. Due to some construction was a bi noisey on last day. I would stay here again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r456744546-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>456744546</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Fairly Nice hotel but near a noisy bar</t>
+  </si>
+  <si>
+    <t>I think the manager of this hotel should complain to the city about the bar which keeps guests awake till early am. Otherwise its a good location being close to restaurants and shopping and neighborhood is safe</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r449923545-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>449923545</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Good overall value</t>
+  </si>
+  <si>
+    <t>Room was clean. Staff was nice. Limited parking spaces so I had to park in the street a few nights.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r448693345-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>448693345</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Good service, good location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing fancy but also nothing wrong. Clean, well cared for, friendly staff. Location was perfect for me, central to old friends. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r446047412-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>446047412</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>My Stay at the Days Inn in Alhambra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved the location of this hotel and the staff were very nice.  I wish the rooms were a bit more modern but the room appeared to be very clean and quiet. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r444352318-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>444352318</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Was there for the weekend is perfectly located in the heart of the city walking distance to all entertainment movies and dinning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r444273891-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>444273891</t>
+  </si>
+  <si>
+    <t>Lovely Staff</t>
+  </si>
+  <si>
+    <t>Pros: Considerable! The Breakfast is perfectly adequate and was better than what I was expecting. In specific - the coffee was decent (especially when you consider it's hotel coffee) and the fruit was very nice and fresh, and there were some nice options for toast, cereal, and oatmeal. 
+The Staff was excellent. Everyone I spoke to was very nice, and they always had a smile for me. 
+The room was lovely and clean - no complaints there. 
+Bonus: There was a Star Wars marathon on TV when I was resting in my room, I really enjoyed that. 
+Cons: Parking is an issue, and it's the only reason this hotel doesn't get a five-star rating. They LITERALLY have twice as many rooms as they do parking spaces, and though the center around the hotel is predominantly walking friendly - there aren't nearly enough spaces on the street to make up for the lack of parking on the hotel property. Saturday night, I had to park a block down, at midnight, on the street, walk back for a parking permit, and walk back to my car. Lucky I like a nice walk to clear my head, and I'm not afraid of assailants - but I can imagine other single women would be VERY off-put. 
+This hotel is not really in an area that it's likely for travelers to NOT come by car (no hospitals nearby for people to be staying to watch...Pros: Considerable! The Breakfast is perfectly adequate and was better than what I was expecting. In specific - the coffee was decent (especially when you consider it's hotel coffee) and the fruit was very nice and fresh, and there were some nice options for toast, cereal, and oatmeal. The Staff was excellent. Everyone I spoke to was very nice, and they always had a smile for me. The room was lovely and clean - no complaints there. Bonus: There was a Star Wars marathon on TV when I was resting in my room, I really enjoyed that. Cons: Parking is an issue, and it's the only reason this hotel doesn't get a five-star rating. They LITERALLY have twice as many rooms as they do parking spaces, and though the center around the hotel is predominantly walking friendly - there aren't nearly enough spaces on the street to make up for the lack of parking on the hotel property. Saturday night, I had to park a block down, at midnight, on the street, walk back for a parking permit, and walk back to my car. Lucky I like a nice walk to clear my head, and I'm not afraid of assailants - but I can imagine other single women would be VERY off-put. This hotel is not really in an area that it's likely for travelers to NOT come by car (no hospitals nearby for people to be staying to watch family members, not near a theme park where someone might grab a shuttle, etc.) It's my assumption that any customers who come to the hotel are probably driving in, and need somewhere to put their car overnight. My recommendation to the hotel manager/owner is to make a deal with the parking garage across the street from your hotel for your customers to use spaces when your lot is full.MoreShow less</t>
+  </si>
+  <si>
+    <t>daysinn91801, General Manager at Days Inn by Wyndham Alhambra CA, responded to this reviewResponded December 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2016</t>
+  </si>
+  <si>
+    <t>Pros: Considerable! The Breakfast is perfectly adequate and was better than what I was expecting. In specific - the coffee was decent (especially when you consider it's hotel coffee) and the fruit was very nice and fresh, and there were some nice options for toast, cereal, and oatmeal. 
+The Staff was excellent. Everyone I spoke to was very nice, and they always had a smile for me. 
+The room was lovely and clean - no complaints there. 
+Bonus: There was a Star Wars marathon on TV when I was resting in my room, I really enjoyed that. 
+Cons: Parking is an issue, and it's the only reason this hotel doesn't get a five-star rating. They LITERALLY have twice as many rooms as they do parking spaces, and though the center around the hotel is predominantly walking friendly - there aren't nearly enough spaces on the street to make up for the lack of parking on the hotel property. Saturday night, I had to park a block down, at midnight, on the street, walk back for a parking permit, and walk back to my car. Lucky I like a nice walk to clear my head, and I'm not afraid of assailants - but I can imagine other single women would be VERY off-put. 
+This hotel is not really in an area that it's likely for travelers to NOT come by car (no hospitals nearby for people to be staying to watch...Pros: Considerable! The Breakfast is perfectly adequate and was better than what I was expecting. In specific - the coffee was decent (especially when you consider it's hotel coffee) and the fruit was very nice and fresh, and there were some nice options for toast, cereal, and oatmeal. The Staff was excellent. Everyone I spoke to was very nice, and they always had a smile for me. The room was lovely and clean - no complaints there. Bonus: There was a Star Wars marathon on TV when I was resting in my room, I really enjoyed that. Cons: Parking is an issue, and it's the only reason this hotel doesn't get a five-star rating. They LITERALLY have twice as many rooms as they do parking spaces, and though the center around the hotel is predominantly walking friendly - there aren't nearly enough spaces on the street to make up for the lack of parking on the hotel property. Saturday night, I had to park a block down, at midnight, on the street, walk back for a parking permit, and walk back to my car. Lucky I like a nice walk to clear my head, and I'm not afraid of assailants - but I can imagine other single women would be VERY off-put. This hotel is not really in an area that it's likely for travelers to NOT come by car (no hospitals nearby for people to be staying to watch family members, not near a theme park where someone might grab a shuttle, etc.) It's my assumption that any customers who come to the hotel are probably driving in, and need somewhere to put their car overnight. My recommendation to the hotel manager/owner is to make a deal with the parking garage across the street from your hotel for your customers to use spaces when your lot is full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r436240793-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>436240793</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>RESTFULL STAY</t>
+  </si>
+  <si>
+    <t>Breakfast was basic, parking was awful. Less than 20 spaces for entire hotel. Had to park in street with hotel validation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r431539826-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>431539826</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>two day business</t>
+  </si>
+  <si>
+    <t>The only problem that I had was an intermittent wi-fi connection, that is not good specially when doing banking operations.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r430343565-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>430343565</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and good value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The price was very good, Staff was very helpful and friendly. Bonus points for having the microwave and refrigerator. A little older but overall, I felt comfortable and safe and would recommend staying here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r427644227-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>427644227</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Convenient hangout</t>
+  </si>
+  <si>
+    <t>This property is comfortable and very convenient to the purpose of our visit in nearby East L.A. The room this time was not one of the recently renovated ones but still quite serviceable. There are many food options within easy walking distance, including a Starbucks right next door on Main St. On-property parking is tight (we lucked out all five nights this time) but the property provides the required city permit for overnight parking on First St. upon request, usually allowing you to park within 1/4 block.One word of caution: There always seems to be some sort of construction noise from the adjacent commercial property along Main St. that starts before 8AM on Saturday morning. This time it was a generator or air compressor that started around 7:30 and ran for an hour.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property is comfortable and very convenient to the purpose of our visit in nearby East L.A. The room this time was not one of the recently renovated ones but still quite serviceable. There are many food options within easy walking distance, including a Starbucks right next door on Main St. On-property parking is tight (we lucked out all five nights this time) but the property provides the required city permit for overnight parking on First St. upon request, usually allowing you to park within 1/4 block.One word of caution: There always seems to be some sort of construction noise from the adjacent commercial property along Main St. that starts before 8AM on Saturday morning. This time it was a generator or air compressor that started around 7:30 and ran for an hour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r421228682-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>421228682</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>My Room Smelled Like Mildew</t>
+  </si>
+  <si>
+    <t>This Days Inn is in poor shape. The man that checked me in was nice enough, but offered little in the way of parking. I was directed to find a spot on the street because their parking lot does not have enough spaces for the number of rooms they have available. I found my spot on the street and then lugged my bags up to the room via a very sketchy elevator (inspection was expired). I had arrived late (after 11 PM), so I was pretty tired and ready to fall into bed for the night. The smell that met me at the door was disgusting. The window was left open and I simply went to be and left the window open. The shower barely dispensed enough water to get wet but I was able to bathe. The bedspread was disgusting and spent the entirety of my stay on the floor. I had to unplug the refrigerator because it made so much noise. I seriously thought of going somewhere else, but I was too tired. I would never stay there again. What A DUMP!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>This Days Inn is in poor shape. The man that checked me in was nice enough, but offered little in the way of parking. I was directed to find a spot on the street because their parking lot does not have enough spaces for the number of rooms they have available. I found my spot on the street and then lugged my bags up to the room via a very sketchy elevator (inspection was expired). I had arrived late (after 11 PM), so I was pretty tired and ready to fall into bed for the night. The smell that met me at the door was disgusting. The window was left open and I simply went to be and left the window open. The shower barely dispensed enough water to get wet but I was able to bathe. The bedspread was disgusting and spent the entirety of my stay on the floor. I had to unplug the refrigerator because it made so much noise. I seriously thought of going somewhere else, but I was too tired. I would never stay there again. What A DUMP!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r418979198-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>418979198</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Overpriced!</t>
+  </si>
+  <si>
+    <t>The pictures are very misleading. I DO NOT recommend this hotel and am surprised that Wyndham is associated with this place. The tile in the bathroom was broken, the room smelled badly and there was hair on the floor...not mine. I don't have a lot of $$$ and I paid $144+ for a room that isn't even worth $60. I wish there was a money back guarantee.  The plus?? The staff were friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r418864124-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>418864124</t>
+  </si>
+  <si>
+    <t>Excellent night in Alhambra, CA</t>
+  </si>
+  <si>
+    <t>My wife and I traveled to Alhambra to visit her sisters and other visiting guests that had come in from out of town. So because of lack of sleeping quarters went had to rent a room. we ended up at the Days Inn in alhambra. The room was clean and the beds were quite comfy. I would definitely stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r411648881-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>411648881</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, and Convenient Location</t>
+  </si>
+  <si>
+    <t>My dad and I were unfortunately in town for a funeral last week.  The Days Inn Alhambra was two blocks away from the funeral home and I wanted my dad to be able to easily walk to and from the service without getting lost.  
+We arrived from Long Beach airport by bus and walked the five blocks from N Atlantic Blvd, which gave us a chance to check out the many shops and restaurants along Main St.  The only one we actually stopped in was 85C Degrees Bakery (at the corner of Main St &amp; 3rd) which we'd heard about but had never been.
+Check-in was smooth.  The 2 double beds room was clean and comfortable.  There was a small refrigerator, a small microwave, and a coffee maker.  The shower/tub and toilet are separate from the sink and large counter space.  There were a few hangers and a full size ironing board and iron.  The only tiny things I felt the room lacked were bedside electrical outlets and an alarm clock.  We had to charge our phones and tablet across the room on the desk.  Not a big deal, but unusual in this day and age.  No problems with the wifi signal.
+We didn't hear much noise if any at all.  The doors and windows face inward, neither street.  The floors are pretty solid, meaning you don't hear your upstairs neighbor's every booming footstep.
+I didn't go down for the...My dad and I were unfortunately in town for a funeral last week.  The Days Inn Alhambra was two blocks away from the funeral home and I wanted my dad to be able to easily walk to and from the service without getting lost.  We arrived from Long Beach airport by bus and walked the five blocks from N Atlantic Blvd, which gave us a chance to check out the many shops and restaurants along Main St.  The only one we actually stopped in was 85C Degrees Bakery (at the corner of Main St &amp; 3rd) which we'd heard about but had never been.Check-in was smooth.  The 2 double beds room was clean and comfortable.  There was a small refrigerator, a small microwave, and a coffee maker.  The shower/tub and toilet are separate from the sink and large counter space.  There were a few hangers and a full size ironing board and iron.  The only tiny things I felt the room lacked were bedside electrical outlets and an alarm clock.  We had to charge our phones and tablet across the room on the desk.  Not a big deal, but unusual in this day and age.  No problems with the wifi signal.We didn't hear much noise if any at all.  The doors and windows face inward, neither street.  The floors are pretty solid, meaning you don't hear your upstairs neighbor's every booming footstep.I didn't go down for the complimentary breakfast in the small lobby (6-10 am, I think), but my dad had a bowl of oatmeal and a cup of coffee.  We left at check-out time 11:00 and crossed paths with one of the friendly housekeepers on the way to the elevator.This isn't a shiny brand new hotel, but all in all, a great one-nighter in a place we'd be happy to stay again.(If I'd known there were so few photos, I would have taken more than just our room.)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>My dad and I were unfortunately in town for a funeral last week.  The Days Inn Alhambra was two blocks away from the funeral home and I wanted my dad to be able to easily walk to and from the service without getting lost.  
+We arrived from Long Beach airport by bus and walked the five blocks from N Atlantic Blvd, which gave us a chance to check out the many shops and restaurants along Main St.  The only one we actually stopped in was 85C Degrees Bakery (at the corner of Main St &amp; 3rd) which we'd heard about but had never been.
+Check-in was smooth.  The 2 double beds room was clean and comfortable.  There was a small refrigerator, a small microwave, and a coffee maker.  The shower/tub and toilet are separate from the sink and large counter space.  There were a few hangers and a full size ironing board and iron.  The only tiny things I felt the room lacked were bedside electrical outlets and an alarm clock.  We had to charge our phones and tablet across the room on the desk.  Not a big deal, but unusual in this day and age.  No problems with the wifi signal.
+We didn't hear much noise if any at all.  The doors and windows face inward, neither street.  The floors are pretty solid, meaning you don't hear your upstairs neighbor's every booming footstep.
+I didn't go down for the...My dad and I were unfortunately in town for a funeral last week.  The Days Inn Alhambra was two blocks away from the funeral home and I wanted my dad to be able to easily walk to and from the service without getting lost.  We arrived from Long Beach airport by bus and walked the five blocks from N Atlantic Blvd, which gave us a chance to check out the many shops and restaurants along Main St.  The only one we actually stopped in was 85C Degrees Bakery (at the corner of Main St &amp; 3rd) which we'd heard about but had never been.Check-in was smooth.  The 2 double beds room was clean and comfortable.  There was a small refrigerator, a small microwave, and a coffee maker.  The shower/tub and toilet are separate from the sink and large counter space.  There were a few hangers and a full size ironing board and iron.  The only tiny things I felt the room lacked were bedside electrical outlets and an alarm clock.  We had to charge our phones and tablet across the room on the desk.  Not a big deal, but unusual in this day and age.  No problems with the wifi signal.We didn't hear much noise if any at all.  The doors and windows face inward, neither street.  The floors are pretty solid, meaning you don't hear your upstairs neighbor's every booming footstep.I didn't go down for the complimentary breakfast in the small lobby (6-10 am, I think), but my dad had a bowl of oatmeal and a cup of coffee.  We left at check-out time 11:00 and crossed paths with one of the friendly housekeepers on the way to the elevator.This isn't a shiny brand new hotel, but all in all, a great one-nighter in a place we'd be happy to stay again.(If I'd known there were so few photos, I would have taken more than just our room.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r410826890-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>410826890</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Better Than Average, Good Location, Limited Parking</t>
+  </si>
+  <si>
+    <t>As said in other reviews, the front desk people are considerate and professional.  The gentleman at the desk noticed that I have some mobility problems (though I am not substantially disabled) and gave me the room closest to the elevator.   Not only is it close to many diverse ethnic restaurants, as well as a diner and Fosselman's ice Cream just down the street.  the area guide includes many of them including those that deliver.If you have children with you, there is a small but lovely aquarium in the lobby.I was alone, so the fact that they have only one parking space per room and that there is no overnight street parking was not a problem.  For those sharing a room, it might be.Everything was clean and neat.  Lots of TV channels. All rooms face the parking lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>As said in other reviews, the front desk people are considerate and professional.  The gentleman at the desk noticed that I have some mobility problems (though I am not substantially disabled) and gave me the room closest to the elevator.   Not only is it close to many diverse ethnic restaurants, as well as a diner and Fosselman's ice Cream just down the street.  the area guide includes many of them including those that deliver.If you have children with you, there is a small but lovely aquarium in the lobby.I was alone, so the fact that they have only one parking space per room and that there is no overnight street parking was not a problem.  For those sharing a room, it might be.Everything was clean and neat.  Lots of TV channels. All rooms face the parking lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r401531436-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>401531436</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>No parkings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I asked the male front desk, where can i park my car. And he told me that i need to park my car on the street because there are no more parking space available. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r383198550-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>383198550</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Close to EVERYTHING</t>
+  </si>
+  <si>
+    <t>The hotel was very clean, and room was comfortable. It is working distance to everything, coffee shop, ice cream parlor, bars, movie theater, any kind of  restaurants you can think of they have it nearby, civic center, library, and even police station. It is only twenty minutes drive to Hollywood or Pasadena Rose Bowl. The only draw back is the parking lot, it is very narrow and not enough for every room. Beside the parking lot, I highly recommended this hotel for the location, cleanness, and value.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r367254430-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>367254430</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Super friendly staff; worn out facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front office staff were wonderful and helped with a complicated arrival time, etc; even the cleaning staff were friendly and pleasant to encounter in the halls.Great location, convenient. For these reasons, I would use this hotel often when I do business at Cal Tech if it were more clean and refreshed (carpets dingy, hair in the tub, toilet bowl ring, funky smelling bedding etc). Maybe they will do so in future. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r365370628-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>365370628</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>No Bueno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a very good place to stay. Loud into the night. Poorly maintained facility. I slept in my own sleeping bag waking several times to the loud commotions in the alleyway. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r352131439-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>352131439</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Good Location, Good Price, Too many people smoking outside of my room!</t>
+  </si>
+  <si>
+    <t>Location and price are attractive; breakfast is very basic; on-premises parking is only about 20 spaces.  We had to go back to the front office twice to get new keys when we checked in, since they would not open the room we were assigned.  Biggest complaint would be that they have a lot of smokers who just go outside the non-smoking rooms on the balcony and spread their noxious fumes  into the rooms where other guests are staying.  We don't like the smell of smoke, and it makes us nervous that the management will tell us we were smoking in our room and unjustly charge a cleaning fee!  They should establish a "smokers corner" away from the guest rooms and require smokers to go there.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Location and price are attractive; breakfast is very basic; on-premises parking is only about 20 spaces.  We had to go back to the front office twice to get new keys when we checked in, since they would not open the room we were assigned.  Biggest complaint would be that they have a lot of smokers who just go outside the non-smoking rooms on the balcony and spread their noxious fumes  into the rooms where other guests are staying.  We don't like the smell of smoke, and it makes us nervous that the management will tell us we were smoking in our room and unjustly charge a cleaning fee!  They should establish a "smokers corner" away from the guest rooms and require smokers to go there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r350881900-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>350881900</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Reserved  King Bed room on-line. At check in was given a room with two queen beds. Was told they had no more King Rooms. I made a point to say I wanted a room that wasn't going to be noisy. Room was on 2nd floor. Room above on third floor had two kids that "stomped" across the floor till late at nite and again beginning at 5am. Air conditioning filter smelled like it hadn't been changed in a long time. I was very disappointed with the room. Reservation was for two nights, cancelled second night!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r350579453-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>350579453</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>The WORST experience in my entire life</t>
+  </si>
+  <si>
+    <t>Do NOT stay in this hotel EVER!!!  The reason I stayed here was because I had an event the very next day and it was going to take place at 07:00 so I decided to stay right next door but man oh man, what a mistake that was! The noise from the MAIN  St.,the noise from the alley behind the hotel,the noise from the parking lot inside the hotel, the noise from inside the hotel,the noise from the other rooms slamming their doors...noise...noise...noise!!!Dirty bathroom, not enough outlets, no tissue paper in the bathroom,old pillows, dirty tub, a very old sofa in the bedroom that did not belong there!!! Do  not stay in this hotel....oh, and the breakfast was terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Do NOT stay in this hotel EVER!!!  The reason I stayed here was because I had an event the very next day and it was going to take place at 07:00 so I decided to stay right next door but man oh man, what a mistake that was! The noise from the MAIN  St.,the noise from the alley behind the hotel,the noise from the parking lot inside the hotel, the noise from inside the hotel,the noise from the other rooms slamming their doors...noise...noise...noise!!!Dirty bathroom, not enough outlets, no tissue paper in the bathroom,old pillows, dirty tub, a very old sofa in the bedroom that did not belong there!!! Do  not stay in this hotel....oh, and the breakfast was terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r348681958-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>348681958</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Love this place</t>
+  </si>
+  <si>
+    <t>Have stayed here several times. And each room has been very comfortable. Very roomy. Breakfast is ok. Maybe some waffles would make it perfect. Just kidding. The staff is great. Thank you dave for all your help. Thanks to the night clerk whose name i cant pronounce. And lastly thank you to my friend in housekeeping. Dont know her name but she is so friendly. Have told several people about this hotel. Would stay again and again if i need to.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r344369250-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>344369250</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>I was very pleasantly surprised by this hotel. I travel for a living, and seldom find such a great little hotel at a very reasonable price.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r341814317-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>341814317</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Great for business travel.</t>
+  </si>
+  <si>
+    <t>I needed just an overnight recently for a meeting in LA.  I booked the hotel at the last minute, and rate was fine, nothing to rave about.  But the room exceeded my expectations.  The bathroom was immaculate!  The beds were nice, good quality, and pillow top, tons of pillows, microwave and fridge in the room.  And the biggest surprise was the continental breakfast. I was just expecting coffee and a piece of fruit, and maybe a danish, but what I found was several kinds of cereals, juice, milk, coffee, several kinds of bread for toast, peanut butter, and yogurt.   We had a late arrival, and they called me to check to see if I was still coming, and the gentleman at the front desk was very very nice.  I honestly couldn't have asked for anything better.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed just an overnight recently for a meeting in LA.  I booked the hotel at the last minute, and rate was fine, nothing to rave about.  But the room exceeded my expectations.  The bathroom was immaculate!  The beds were nice, good quality, and pillow top, tons of pillows, microwave and fridge in the room.  And the biggest surprise was the continental breakfast. I was just expecting coffee and a piece of fruit, and maybe a danish, but what I found was several kinds of cereals, juice, milk, coffee, several kinds of bread for toast, peanut butter, and yogurt.   We had a late arrival, and they called me to check to see if I was still coming, and the gentleman at the front desk was very very nice.  I honestly couldn't have asked for anything better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r337567875-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>337567875</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>We had stayed there last year and really thought the hotel...</t>
+  </si>
+  <si>
+    <t>We had stayed there last year and really thought the hotel was good for the price, this time around it felt dirty, outdated, broken/moldy tiles in bathroom, no parking, noisey, dirty Kleenex on floor. Continental breakfast was a joke, serving stale cereal!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r336690620-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>336690620</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>I'd stay here again</t>
+  </si>
+  <si>
+    <t>The hospitality here was great. The receptionists were very accommodating and helpful. Too bad one can't directly contact the hotel instead of going through a booking agent who is in a central office somewhere. I had better success altering my reservation when I could speak directly with the hotel. No gluten free options on breakfast menu.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r335787178-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>335787178</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel at a great place</t>
+  </si>
+  <si>
+    <t>Stayed here welcoming one of my friends. Had a great experience. The hotel guy Prabhakar is really helpful and awesome</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r334808010-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>334808010</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location </t>
+  </si>
+  <si>
+    <t>We stayed here for family visit. It's close to my family, good location to access food, restaurants and movie theater. The room was ok and clean. The breakfast was good. The front desk staff were so friendly and helpful! They helped us to find the bag we lost in our room. Thanks.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r332182740-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>332182740</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>I recommend it!</t>
+  </si>
+  <si>
+    <t>Great I loved it, everything was perfect next time when I have business or training for the marines its the first hotel I'll go to I truly recommend it to all of you who need a hotel. The service was great, the rooms were nice and clean and with breakfast in the mornings its just great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r330612433-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>330612433</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>One of the best Days Inn I have stayed at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at many places. The surrounding neighborhood was nice. The parking area was lighted. The room was clean and the towels etc. were newer. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r322515060-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>322515060</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>good value</t>
+  </si>
+  <si>
+    <t>YOU get what you pay for . the price was a fair price for acceptable , no frills accomadations. Good enough to rest your head.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r320912632-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>320912632</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>My stay at Days Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was very friendly and helpful. The room was nice and very clean. I enjoyed my stay. The maid service was great. I would recommend this Inn to others. The only problem was the parking. Otherwise it was a great stay </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r319410908-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>319410908</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable. Wi-fi was a little...</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable. Wi-fi was a little tricky--could have been my laptop. Did not experience complimentary breakfast. Easy check in/check out. Good value. Easy walk to Starbucks and other restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r306773121-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>306773121</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>One problem</t>
+  </si>
+  <si>
+    <t>Everything was nice excpet the dead bolt in room 212 was broken off so there was no way to use it and caused a feeling of uneasiness and also the bathroom smelled liked fish which was really strange.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r296119444-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>296119444</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Poor repairs and breakfast</t>
+  </si>
+  <si>
+    <t>The room was full if shoddy repairs. I was on the second floor and a part if the floor was not level. Secondly the free continental breakfast was meager compared to the industry standard. No waffles :(</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r294526080-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>294526080</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Excellent customer service, and great location</t>
+  </si>
+  <si>
+    <t>Hello,
+The folks running this facility are very friendly and accommodating. The cleaning staff are also polite, friendly and welcoming.
+They even had business cards of various businesses to hand out to guest, the one I seen a women asked about photo copy services and he handed her a business card for a place just down the street.
+I would highly recommend this Day's Inn, and it's excellent location in downtown Alhambra, with so many, something like 40 nice restaurants, a theater and Dr. John Chao, a world famous dentist all with a couple blocks.
+Rich's Char Burger has great eats, opens at 6am and every Friday and Saturday night has fun Hispanic and other dance tunes, with sometimes over 100 people showing up. Main street Diner across the street, also has good eats. Both have nice outdoor eating areas, as many places down that way.
+There is just about any nationality of food to enjoy, I see many other restaurants I'd like to try, the East Indian is very good, and I also want to visit the others if time allows in the future, the Boiling Crab always has tons of folks waiting and I must try it sometime. Also, down Main street a couple blocks is a Dim Sum, which are always fun.
+If you doing business the city hall and library are only in the next block down from Day's Inn, as is the court house etc....Hello,The folks running this facility are very friendly and accommodating. The cleaning staff are also polite, friendly and welcoming.They even had business cards of various businesses to hand out to guest, the one I seen a women asked about photo copy services and he handed her a business card for a place just down the street.I would highly recommend this Day's Inn, and it's excellent location in downtown Alhambra, with so many, something like 40 nice restaurants, a theater and Dr. John Chao, a world famous dentist all with a couple blocks.Rich's Char Burger has great eats, opens at 6am and every Friday and Saturday night has fun Hispanic and other dance tunes, with sometimes over 100 people showing up. Main street Diner across the street, also has good eats. Both have nice outdoor eating areas, as many places down that way.There is just about any nationality of food to enjoy, I see many other restaurants I'd like to try, the East Indian is very good, and I also want to visit the others if time allows in the future, the Boiling Crab always has tons of folks waiting and I must try it sometime. Also, down Main street a couple blocks is a Dim Sum, which are always fun. If you doing business the city hall and library are only in the next block down from Day's Inn, as is the court house etc. About 10 blocks down main, an easy walk is Enterprise Rent a Car and they are open for a short time on Sunday for convienient drop off.Also, I must throw one out there for Super Shuttle, a great dependable service for going to and from the airport, their drivers are very professional and helpful and have live GPS monitors to avoid traffic issues as they happen. The area is really growing and building up, the leaders of this town, appear to get it and seem to have good relationships with the locals and business community as a whole. Also, within half block, there are nice quiet historic neighborhoods that are safe to walk around in the evening. A beautiful area, nestled just below the beautiful San Gabriel Mountains.   MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Hello,
+The folks running this facility are very friendly and accommodating. The cleaning staff are also polite, friendly and welcoming.
+They even had business cards of various businesses to hand out to guest, the one I seen a women asked about photo copy services and he handed her a business card for a place just down the street.
+I would highly recommend this Day's Inn, and it's excellent location in downtown Alhambra, with so many, something like 40 nice restaurants, a theater and Dr. John Chao, a world famous dentist all with a couple blocks.
+Rich's Char Burger has great eats, opens at 6am and every Friday and Saturday night has fun Hispanic and other dance tunes, with sometimes over 100 people showing up. Main street Diner across the street, also has good eats. Both have nice outdoor eating areas, as many places down that way.
+There is just about any nationality of food to enjoy, I see many other restaurants I'd like to try, the East Indian is very good, and I also want to visit the others if time allows in the future, the Boiling Crab always has tons of folks waiting and I must try it sometime. Also, down Main street a couple blocks is a Dim Sum, which are always fun.
+If you doing business the city hall and library are only in the next block down from Day's Inn, as is the court house etc....Hello,The folks running this facility are very friendly and accommodating. The cleaning staff are also polite, friendly and welcoming.They even had business cards of various businesses to hand out to guest, the one I seen a women asked about photo copy services and he handed her a business card for a place just down the street.I would highly recommend this Day's Inn, and it's excellent location in downtown Alhambra, with so many, something like 40 nice restaurants, a theater and Dr. John Chao, a world famous dentist all with a couple blocks.Rich's Char Burger has great eats, opens at 6am and every Friday and Saturday night has fun Hispanic and other dance tunes, with sometimes over 100 people showing up. Main street Diner across the street, also has good eats. Both have nice outdoor eating areas, as many places down that way.There is just about any nationality of food to enjoy, I see many other restaurants I'd like to try, the East Indian is very good, and I also want to visit the others if time allows in the future, the Boiling Crab always has tons of folks waiting and I must try it sometime. Also, down Main street a couple blocks is a Dim Sum, which are always fun. If you doing business the city hall and library are only in the next block down from Day's Inn, as is the court house etc. About 10 blocks down main, an easy walk is Enterprise Rent a Car and they are open for a short time on Sunday for convienient drop off.Also, I must throw one out there for Super Shuttle, a great dependable service for going to and from the airport, their drivers are very professional and helpful and have live GPS monitors to avoid traffic issues as they happen. The area is really growing and building up, the leaders of this town, appear to get it and seem to have good relationships with the locals and business community as a whole. Also, within half block, there are nice quiet historic neighborhoods that are safe to walk around in the evening. A beautiful area, nestled just below the beautiful San Gabriel Mountains.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r281488313-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>281488313</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>From Puerto Rico</t>
+  </si>
+  <si>
+    <t>I went on Friday to Hollywood, when I got back to my room in the afternoon the bed didn't have the sheets on. The cleaning lady took them and came back an hour later to clean our room.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r278838359-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>278838359</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Pluses &amp; minuses</t>
+  </si>
+  <si>
+    <t>Pluses: Rooms are well-equipped, including fridge and microwave. Rates are moderate. Location is just a few steps to good restaurants &amp; other businesses on Main St. in Alhambra.Minuses: Noise is a problem from a) nearby nightclub(s) with loud live music and b) Really loud, inconsiderate hotel guests who yell and scream in the wee hours (2 - 3 - 4 in the morning). Parking is tight -- there are about 32 rooms and only about half that number of parking spaces. Breakfast is so-so, though I was pleased that they had raisin bran cereal.Thus far I have stayed here 3 times (in the last 3 months or so) because of personal business and the location works very well for me. However, the downsides (such as noise) are wearing on me a bit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pluses: Rooms are well-equipped, including fridge and microwave. Rates are moderate. Location is just a few steps to good restaurants &amp; other businesses on Main St. in Alhambra.Minuses: Noise is a problem from a) nearby nightclub(s) with loud live music and b) Really loud, inconsiderate hotel guests who yell and scream in the wee hours (2 - 3 - 4 in the morning). Parking is tight -- there are about 32 rooms and only about half that number of parking spaces. Breakfast is so-so, though I was pleased that they had raisin bran cereal.Thus far I have stayed here 3 times (in the last 3 months or so) because of personal business and the location works very well for me. However, the downsides (such as noise) are wearing on me a bit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r277382774-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>277382774</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>No parking, owner was rude. Had to leave early due to an...</t>
+  </si>
+  <si>
+    <t>No parking, owner was rude. Had to leave early due to an emergency. We left after onl 5 1/2 hours. Requested a discount, and he didn't even say no as a nice person. Room as dirty. Rude people run this place and we will not return. I will post this on yelp as well. Customer service training maybe? Aren't you in the business of human beings??</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r277125210-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>277125210</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Everything needs repair...</t>
+  </si>
+  <si>
+    <t>The shower didn't work and they couldn't fix the mechanism, it was noise, as it faces on a service alley for nightclubs and restaurants that are open until 2am. The furniture was falling apart and the door wouldn't stay open to move in or out. and the staff are very polite but can't seem to fix anything. The TV was big, but the remote control didn't work very well, so I would not recommend or stay at this address again, ever....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r274281734-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>274281734</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean rooms with a desk and free wi-fi located in downtown Alhambra. It is a small hotel with barely enough parking; but, with helpful attendants. Refrigerator in room for take home, if required. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r273693020-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>273693020</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Alhambra Days Inn</t>
+  </si>
+  <si>
+    <t>The second floor room we had sucks!We usually stay on the third floor with no issue.This room was above average warm,the bathroom smelled,and the neighbors every night were loud on both sides.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r263668330-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>263668330</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>OK for 2 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did not like the outside aspect of the building as I staid there before. The service was as attentive as you would expect . Inside the room we realized that a lot was improved such as the flat TV, the bathroom, new carpet and new linoleum in front of the sink.  </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r261802269-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>261802269</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Still recovering from bed bug bites</t>
+  </si>
+  <si>
+    <t>I booked 4 nights at this hotel but I had to evacuate after 2 horrible sleepless nights not knowing what was going on. I thought it was afoot allergy until I discovered a nest of bed bugs....in my bed,see picture attached. Facility manager still charged me for one night of this nightmare</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r260770812-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>260770812</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Days Inn experience</t>
+  </si>
+  <si>
+    <t>My stay in this hotel was great. It was clean, roomy, and had all the amenities necessary for a comfortable experience. I highly recommend it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r256236483-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>256236483</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>The room was good service was good, no parking anywhere, I...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was good service was good, no parking anywhere, I parked in the lot next door after paying an additional 5 dollars and was told it was OK, only to wake up and see that I have a $52 dollar ticket for over night parking, I feel I should be reimbursed for this after being told it was allowed  </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r251508455-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>251508455</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Honestly LOVE this hotel</t>
+  </si>
+  <si>
+    <t>I have to admit I was skeptical at first to stay here. I am a very hard person to please, period. But living in my area there are really all of 2 hotels close in proximity, and when my house had to under go some maintenance, we had no choice but to stay at a hotel for a few days. The office staff here could not have been more kind and friendly towards us and never once did we feel that we were not high priority customers. The rooms are all very nice, the beds completely comfortable. We have actually stayed several times since our house was finished just as a quick get away from the kids, and plan to continue to do so a few times a month.LOVE YOU GUYS!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I have to admit I was skeptical at first to stay here. I am a very hard person to please, period. But living in my area there are really all of 2 hotels close in proximity, and when my house had to under go some maintenance, we had no choice but to stay at a hotel for a few days. The office staff here could not have been more kind and friendly towards us and never once did we feel that we were not high priority customers. The rooms are all very nice, the beds completely comfortable. We have actually stayed several times since our house was finished just as a quick get away from the kids, and plan to continue to do so a few times a month.LOVE YOU GUYS!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r251176848-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>251176848</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>No parking</t>
+  </si>
+  <si>
+    <t>They do not have enough parking for the rooms they have. I got a parking ticket parking where the had me park.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r247660685-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>247660685</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Hard to rate</t>
+  </si>
+  <si>
+    <t>This was a confusing property to evaluate. On one hand, it seemed like an old tired motel - and it did have some shortcomings. However, I have to admit that its location was convenient and the room was very clean. Another important aspecct of this property was that it was very quiet. I was bothered by 1/2" gap at the bottom of the door. All sorts of critters could fit through that space. The "blanket" felt like a thin sheet of foam. There was not a third sheet for the bed. The first morning we were there, I discovered that there was no hot water. There was not enough parking for the cars of all of the guests. Apparently, the water heater had failed. On New Year's Eve, the management gave us a bottle of champagne - very thoughtful. We stayed at this property because of the price. We were there to see the Rose Parade on New Year's Day. Hotels in the area (including this one) raise their rates dramatically. I was not willing to pay $500/night or more to stay in a higher end hotel (e.g., Marriott, Hilton, etc.). So, the big question is would I stay at this hotel again. Under the same circumstances - probably. Under normal pricing and availability for a room at upscale hotels, I would not. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This was a confusing property to evaluate. On one hand, it seemed like an old tired motel - and it did have some shortcomings. However, I have to admit that its location was convenient and the room was very clean. Another important aspecct of this property was that it was very quiet. I was bothered by 1/2" gap at the bottom of the door. All sorts of critters could fit through that space. The "blanket" felt like a thin sheet of foam. There was not a third sheet for the bed. The first morning we were there, I discovered that there was no hot water. There was not enough parking for the cars of all of the guests. Apparently, the water heater had failed. On New Year's Eve, the management gave us a bottle of champagne - very thoughtful. We stayed at this property because of the price. We were there to see the Rose Parade on New Year's Day. Hotels in the area (including this one) raise their rates dramatically. I was not willing to pay $500/night or more to stay in a higher end hotel (e.g., Marriott, Hilton, etc.). So, the big question is would I stay at this hotel again. Under the same circumstances - probably. Under normal pricing and availability for a room at upscale hotels, I would not. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r246589813-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>246589813</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Saturday 'tween Christmas and New Year</t>
+  </si>
+  <si>
+    <t>Exterior of property looked a little run-down, but once we got in the room, the room itself was well-apportioned and maintained.  It was small but clean, and the bed and pillows were very comfy.  Also, great water pressure in the shower and the water stayed ice and hot.  Walls a little thin so I could hear people outside in in other rooms.  Looked at breakfast but didn't partake as it was a little sparse.  Also, parking started out to be a problem as there were no spaces left, but the staff member manning the front desk was able to resolve this.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r246250929-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>246250929</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Another nice stay in Alhambra</t>
+  </si>
+  <si>
+    <t>The owner has re-painted the buildings' exterior and remodeled the lobby/breakfast area. I have stayed here numerous times and the rooms are always clean and the staff very friendly. Located right in the business area of Alhambra it is only a block away from City Hall and a great County library. Good eats within walking distance and Starbucks on the corner just to the south. Tomomi for sushi and Japanese cuisine; Charlie's Trio for Italian, 38 degrees for American and 28 degrees (south side of main 1/2 block east) for great shrimp tacos plus a very busy (and good) Korean BBQ. A multiplex movie theater just one block east for easy entertainment plus some other eateries.
+Onsite parking can be tough if the hotel is fully booked as Alhambra does not allow overnight on-street parking, except by permit (available at the desk for free for guests or $5.00 at the Alhambra police station just south of City Hall.) The new parking structure across the street is open (free) for limited day and night parking but not overnight parking.
+I travel into the area for business almost weekly (and stay for one to five days) and the staff and owner have always been great. The breakfast area can be a little crowded and serves a "healthier" basic breakfast. They do keep coffee going on most days and the rooms do have microwaves and refrigerators. Utensils and plates are available in the...The owner has re-painted the buildings' exterior and remodeled the lobby/breakfast area. I have stayed here numerous times and the rooms are always clean and the staff very friendly. Located right in the business area of Alhambra it is only a block away from City Hall and a great County library. Good eats within walking distance and Starbucks on the corner just to the south. Tomomi for sushi and Japanese cuisine; Charlie's Trio for Italian, 38 degrees for American and 28 degrees (south side of main 1/2 block east) for great shrimp tacos plus a very busy (and good) Korean BBQ. A multiplex movie theater just one block east for easy entertainment plus some other eateries.Onsite parking can be tough if the hotel is fully booked as Alhambra does not allow overnight on-street parking, except by permit (available at the desk for free for guests or $5.00 at the Alhambra police station just south of City Hall.) The new parking structure across the street is open (free) for limited day and night parking but not overnight parking. I travel into the area for business almost weekly (and stay for one to five days) and the staff and owner have always been great. The breakfast area can be a little crowded and serves a "healthier" basic breakfast. They do keep coffee going on most days and the rooms do have microwaves and refrigerators. Utensils and plates are available in the lobby. Closest grocery store is Ralphs about 1/2 mile east on Main St. Rates are very reasonable for the area, too. Looking forward to the planned upgrade to the units interior décor. The wireless internet problems are now fixed (it was not an easy fix either for the provider) and are running at good speeds. Yeah! and Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>The owner has re-painted the buildings' exterior and remodeled the lobby/breakfast area. I have stayed here numerous times and the rooms are always clean and the staff very friendly. Located right in the business area of Alhambra it is only a block away from City Hall and a great County library. Good eats within walking distance and Starbucks on the corner just to the south. Tomomi for sushi and Japanese cuisine; Charlie's Trio for Italian, 38 degrees for American and 28 degrees (south side of main 1/2 block east) for great shrimp tacos plus a very busy (and good) Korean BBQ. A multiplex movie theater just one block east for easy entertainment plus some other eateries.
+Onsite parking can be tough if the hotel is fully booked as Alhambra does not allow overnight on-street parking, except by permit (available at the desk for free for guests or $5.00 at the Alhambra police station just south of City Hall.) The new parking structure across the street is open (free) for limited day and night parking but not overnight parking.
+I travel into the area for business almost weekly (and stay for one to five days) and the staff and owner have always been great. The breakfast area can be a little crowded and serves a "healthier" basic breakfast. They do keep coffee going on most days and the rooms do have microwaves and refrigerators. Utensils and plates are available in the...The owner has re-painted the buildings' exterior and remodeled the lobby/breakfast area. I have stayed here numerous times and the rooms are always clean and the staff very friendly. Located right in the business area of Alhambra it is only a block away from City Hall and a great County library. Good eats within walking distance and Starbucks on the corner just to the south. Tomomi for sushi and Japanese cuisine; Charlie's Trio for Italian, 38 degrees for American and 28 degrees (south side of main 1/2 block east) for great shrimp tacos plus a very busy (and good) Korean BBQ. A multiplex movie theater just one block east for easy entertainment plus some other eateries.Onsite parking can be tough if the hotel is fully booked as Alhambra does not allow overnight on-street parking, except by permit (available at the desk for free for guests or $5.00 at the Alhambra police station just south of City Hall.) The new parking structure across the street is open (free) for limited day and night parking but not overnight parking. I travel into the area for business almost weekly (and stay for one to five days) and the staff and owner have always been great. The breakfast area can be a little crowded and serves a "healthier" basic breakfast. They do keep coffee going on most days and the rooms do have microwaves and refrigerators. Utensils and plates are available in the lobby. Closest grocery store is Ralphs about 1/2 mile east on Main St. Rates are very reasonable for the area, too. Looking forward to the planned upgrade to the units interior décor. The wireless internet problems are now fixed (it was not an easy fix either for the provider) and are running at good speeds. Yeah! and Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r243785242-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>243785242</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Hotel staff was great!  Front check called to check on our...</t>
+  </si>
+  <si>
+    <t>Hotel staff was great!  Front check called to check on our arrival as we were running way later than anticipated.  Rooms were clean and quiet.  The only negative is that parking is at an extreme premium.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r237829009-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>237829009</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>the most disgusting place should be condemned</t>
+  </si>
+  <si>
+    <t>This motel was absolutely disgusting. We were put in a room that had mold on the couch and smelled disgusting. There was hair in the tub ( not ours) at check in and the shower head had so much lime scale on it the water wouldnt come out. The outside of the building looked like it eS condemned and it was located in a terri le neighborhood. We moved the dresser in front of the door to sleep because we did not feel safe. The room eas so gross we were actually thinking about sleeping in our car.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r235189400-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>235189400</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>This is  an average hotel with a very courteous and friendly staff. I found the room to be very nice and very clean. The location is excellent and close to really good restaurants and easy access to shopping and the I-10 freeway. Has microwave, refrigerator, free Wi-fi,  Great desk for business travelers. They offer a very nice free continental breakfast. Elevator is a plus. The one negative is not much parking and the noise in the parking lot is very distracting when you are trying to sleep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r233837313-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>233837313</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>lot of noise and charg me for last night 99 dollars with...</t>
+  </si>
+  <si>
+    <t>lot of noise and charg me for last night 99 dollars with out tax while in the internet the rate was 85 dollars</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r230771392-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>230771392</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Days Inn Alhambra</t>
+  </si>
+  <si>
+    <t>The room was comfortable and clean and the check-in was very easy! Staff is very courteous and everything was as it should be. Outstanding.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r228191517-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>228191517</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r213962687-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>213962687</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Second Stay Changed My Mind</t>
+  </si>
+  <si>
+    <t>For starters, this is the only "chain" hotel in Alhambra. If my only experience with this establishment was my first (November 2013) I would not necessarily say that this was a bad thing, but my most recent experience has changed my mind.
+First, the good: check-in was painless, room was clean, and the air conditioning was cool. These things were appreciated.
+However, there were many experiences that made my experience unpleasurable. Of these, the first was the Wi-Fi. It was unusable, to say the least. After check-in, I began streaming some music on my mobile device via the provided Wi-Fi. Sometime on the subsequent day, the music stopped. Upon further investigation, my mobile data had been being used and was now capped at my limit. I checked the wireless connection and it was minimal and frequently disconnected, meaning that my phone was constantly switching to 4G, which is what capped my data.
+Next, I experienced banging sounds early in the morning (before 9AM). I later found out that these sounds were the housekeeping staff knocking their carts against the walls.
+Last but not least, I was in the lobby on my day of departure for continental breakfast (July 6). While eating breakfast, I overheard the front desk agent assisting someone with making a reservation over the phone. The phone call was on speaker, meaning that everyone who was in the lobby at this time could here this phone call. The...For starters, this is the only "chain" hotel in Alhambra. If my only experience with this establishment was my first (November 2013) I would not necessarily say that this was a bad thing, but my most recent experience has changed my mind.First, the good: check-in was painless, room was clean, and the air conditioning was cool. These things were appreciated.However, there were many experiences that made my experience unpleasurable. Of these, the first was the Wi-Fi. It was unusable, to say the least. After check-in, I began streaming some music on my mobile device via the provided Wi-Fi. Sometime on the subsequent day, the music stopped. Upon further investigation, my mobile data had been being used and was now capped at my limit. I checked the wireless connection and it was minimal and frequently disconnected, meaning that my phone was constantly switching to 4G, which is what capped my data.Next, I experienced banging sounds early in the morning (before 9AM). I later found out that these sounds were the housekeeping staff knocking their carts against the walls.Last but not least, I was in the lobby on my day of departure for continental breakfast (July 6). While eating breakfast, I overheard the front desk agent assisting someone with making a reservation over the phone. The phone call was on speaker, meaning that everyone who was in the lobby at this time could here this phone call. The unsuspecting person on the other end of the phone spoke his first and last name, full credit card number, and expiration date all within earshot of a lobby full of people. The reason that this shocked me was that I had made my reservation in the same fashion. Had someone overheard my information as well? The front desk agent had little disregard for the fact that this man's personal information was effectively being given to everyone in the room. "Gregory" (the man on the phone), I would like to apologize to you on behalf of this establishment for such blatant disregard for your personal information.Needless to say, it is highly unlikely that I will be returning to this hotel for a third time and will instead go out of my way to stay outside of Alhambra and drive in instead.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>For starters, this is the only "chain" hotel in Alhambra. If my only experience with this establishment was my first (November 2013) I would not necessarily say that this was a bad thing, but my most recent experience has changed my mind.
+First, the good: check-in was painless, room was clean, and the air conditioning was cool. These things were appreciated.
+However, there were many experiences that made my experience unpleasurable. Of these, the first was the Wi-Fi. It was unusable, to say the least. After check-in, I began streaming some music on my mobile device via the provided Wi-Fi. Sometime on the subsequent day, the music stopped. Upon further investigation, my mobile data had been being used and was now capped at my limit. I checked the wireless connection and it was minimal and frequently disconnected, meaning that my phone was constantly switching to 4G, which is what capped my data.
+Next, I experienced banging sounds early in the morning (before 9AM). I later found out that these sounds were the housekeeping staff knocking their carts against the walls.
+Last but not least, I was in the lobby on my day of departure for continental breakfast (July 6). While eating breakfast, I overheard the front desk agent assisting someone with making a reservation over the phone. The phone call was on speaker, meaning that everyone who was in the lobby at this time could here this phone call. The...For starters, this is the only "chain" hotel in Alhambra. If my only experience with this establishment was my first (November 2013) I would not necessarily say that this was a bad thing, but my most recent experience has changed my mind.First, the good: check-in was painless, room was clean, and the air conditioning was cool. These things were appreciated.However, there were many experiences that made my experience unpleasurable. Of these, the first was the Wi-Fi. It was unusable, to say the least. After check-in, I began streaming some music on my mobile device via the provided Wi-Fi. Sometime on the subsequent day, the music stopped. Upon further investigation, my mobile data had been being used and was now capped at my limit. I checked the wireless connection and it was minimal and frequently disconnected, meaning that my phone was constantly switching to 4G, which is what capped my data.Next, I experienced banging sounds early in the morning (before 9AM). I later found out that these sounds were the housekeeping staff knocking their carts against the walls.Last but not least, I was in the lobby on my day of departure for continental breakfast (July 6). While eating breakfast, I overheard the front desk agent assisting someone with making a reservation over the phone. The phone call was on speaker, meaning that everyone who was in the lobby at this time could here this phone call. The unsuspecting person on the other end of the phone spoke his first and last name, full credit card number, and expiration date all within earshot of a lobby full of people. The reason that this shocked me was that I had made my reservation in the same fashion. Had someone overheard my information as well? The front desk agent had little disregard for the fact that this man's personal information was effectively being given to everyone in the room. "Gregory" (the man on the phone), I would like to apologize to you on behalf of this establishment for such blatant disregard for your personal information.Needless to say, it is highly unlikely that I will be returning to this hotel for a third time and will instead go out of my way to stay outside of Alhambra and drive in instead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r206626869-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>206626869</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>The DVR Player was not hooked up to the TV.  We rented a...</t>
+  </si>
+  <si>
+    <t>The DVR Player was not hooked up to the TV.  We rented a movie but could not see it.  We called management but he could npot help.  We wasted money on a good movie we could not see.  Hotel staff said he would have IT Staff check into it.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r205907434-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>205907434</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Very clean, bad towels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was a single King size bed and it was clean, comfortable and quiet. I had no trouble checking in and one I was in my room I was content. My only complaint is that the towels were HARD. I felt like I was drying off with sandpaper! Next time, I'll bring my own. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r196196900-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>196196900</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r190498297-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>190498297</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>BCS trip</t>
+  </si>
+  <si>
+    <t>It was an OK hotel but not fancy by any means. Staff was very nice. Towels were, by far, the worst we have ever experienced -- way too thin and you could punch a finger through them. TV service was terrible and very outdated. Location was great with lots of eateries, etc. Parking was limited, forcing some of us to park in the street.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r188528649-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>188528649</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>No worth of the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The worst hotel I ever stayed compared with Best Western, Ramada, Anaheim Plaza and Days Inn. The room was dirty and some facilities were not working properly. Also ridiculous was each device requires a user name and password even if they are all stay in one room. </t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r180734050-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>180734050</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Family Visit</t>
+  </si>
+  <si>
+    <t>I chose this motel because of it's walkability to my parent's retirement home in Alhambra, CA. It is half a block from Main Street, a Starbucks on the corner. The property is in a small space with an inner courtyard forming the parking spaces. It is an older property but the rooms have been updated. "green" initiative noticeable by motion sensor lighting in vanity and bath area. Windows have newer plantation shutters so no dusty drapes. Not plush but clean.Typically however, the water saving concept for guests to reuse their towels was not implemented by housekeeping. I hang up towels carefully and they were replaced each day. I find this everywhere. Housekeeping probably lives by a different checklist than marketing.Staff very nice. I felt safe as a single older woman staying there. Typical free breakfast but had good fresh fruit (peaches each day). MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>daysinn91801, Manager at Days Inn by Wyndham Alhambra CA, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>I chose this motel because of it's walkability to my parent's retirement home in Alhambra, CA. It is half a block from Main Street, a Starbucks on the corner. The property is in a small space with an inner courtyard forming the parking spaces. It is an older property but the rooms have been updated. "green" initiative noticeable by motion sensor lighting in vanity and bath area. Windows have newer plantation shutters so no dusty drapes. Not plush but clean.Typically however, the water saving concept for guests to reuse their towels was not implemented by housekeeping. I hang up towels carefully and they were replaced each day. I find this everywhere. Housekeeping probably lives by a different checklist than marketing.Staff very nice. I felt safe as a single older woman staying there. Typical free breakfast but had good fresh fruit (peaches each day). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r180134416-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>180134416</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>best experience</t>
+  </si>
+  <si>
+    <t>I  booked for 6 days first but stayed  for 15 days as my experience was excellent.  The rooms were very clean and really spacious and big.  Housekeeping staff was good.    I would really like to mention here about the  Manager Tejas  who went out of his way to help guests.  You couldapproach him with any information about Alhambra and he would guide you with preciseinformation.  If you have Manger like Tejas people will  come back to such hotels because I wouldThanks Tejas and all the bestCECILIA DSOUZA  MUMBAI  INDIAMoreShow less</t>
+  </si>
+  <si>
+    <t>I  booked for 6 days first but stayed  for 15 days as my experience was excellent.  The rooms were very clean and really spacious and big.  Housekeeping staff was good.    I would really like to mention here about the  Manager Tejas  who went out of his way to help guests.  You couldapproach him with any information about Alhambra and he would guide you with preciseinformation.  If you have Manger like Tejas people will  come back to such hotels because I wouldThanks Tejas and all the bestCECILIA DSOUZA  MUMBAI  INDIAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r173857281-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>173857281</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>My room faced the street...very loud! The top on the...</t>
+  </si>
+  <si>
+    <t>My room faced the street...very loud! The top on the toilet was too big and moved if you placed anything on it. AC did not cool during the night. Breakfast :(. I don't drink coffee or tea...there was no juice OR water!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>daysinn91801, Manager at Days Inn by Wyndham Alhambra CA, responded to this reviewResponded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2013</t>
+  </si>
+  <si>
+    <t>My room faced the street...very loud! The top on the toilet was too big and moved if you placed anything on it. AC did not cool during the night. Breakfast :(. I don't drink coffee or tea...there was no juice OR water!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r167695231-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>167695231</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>good value and considerate staff</t>
+  </si>
+  <si>
+    <t>TJ at the front desk was very friendly, accommodating and considerate. The value and location is great!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>daysinn91801, Manager at Days Inn by Wyndham Alhambra CA, responded to this reviewResponded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2013</t>
+  </si>
+  <si>
+    <t>TJ at the front desk was very friendly, accommodating and considerate. The value and location is great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r167053721-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>167053721</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff, great location...the only thing is parking...</t>
+  </si>
+  <si>
+    <t>Friendly staff, great location...the only thing is parking is very limited but there is street parking. Good neighborhoodMoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staff, great location...the only thing is parking is very limited but there is street parking. Good neighborhoodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r166212735-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>166212735</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>a very nice stay. It was easy to find. The rooms were very...</t>
+  </si>
+  <si>
+    <t>a very nice stay. It was easy to find. The rooms were very clean. The rooms did not smell. I would recommend this hotel to others. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>a very nice stay. It was easy to find. The rooms were very clean. The rooms did not smell. I would recommend this hotel to others. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r164334055-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>164334055</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Not to our liking...</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel on Monday afternoon and were kind of surprised by the look of the hotel, we parked in a space and walked in to check in. It was a very small lobby and it had a "security gate" inside the workers enter through. We were given room 201 right off the elevator, the room was substandard - the hotel didn't even look like the picture shown on the website. We were continually interrupted all night by people walking up and down the floor going to the elevator and back. The noise made my the housekeepers was annoyingly loud. I definitely would never return to this hotel. Not my cup of tea.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel on Monday afternoon and were kind of surprised by the look of the hotel, we parked in a space and walked in to check in. It was a very small lobby and it had a "security gate" inside the workers enter through. We were given room 201 right off the elevator, the room was substandard - the hotel didn't even look like the picture shown on the website. We were continually interrupted all night by people walking up and down the floor going to the elevator and back. The noise made my the housekeepers was annoyingly loud. I definitely would never return to this hotel. Not my cup of tea.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r163791633-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>163791633</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Front desk person was exceptionally friendly and courteous to our needs. Room was comfy and perfect and anything we needed was responded too promptly and quickly. Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk person was exceptionally friendly and courteous to our needs. Room was comfy and perfect and anything we needed was responded too promptly and quickly. Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r162143308-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>162143308</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>It's a nice quaint hotel and the staff is very friendly...</t>
+  </si>
+  <si>
+    <t>It's a nice quaint hotel and the staff is very friendly. The rooms are clean, and better than most hotels. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>It's a nice quaint hotel and the staff is very friendly. The rooms are clean, and better than most hotels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r159089725-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>159089725</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Last Minute Option</t>
+  </si>
+  <si>
+    <t>While looking for a place to stay on our way to Mission San Gabriel, found this place online and opted to call them directly to reserve. Staff was friendly and she gave us a quick confirmation at a good rate. We arrived a few hours after and while checking in, we asked if we can get further discount with our AAA card and he gave us a lower rate. He then asked where we would like to stay i.e. higher or lower floor....when we said we wanted to get a good sleep, he gave us a room at the 3rd floor and away from street traffic and hallway noise.That was good! Room was spacious but a little run-down. So don't expect more than you paid for. Layout of room with the sink/vanity counter on the right and bathroom door just across the bed made me uncomfortable. Guess it was some kind of a personal pet peeve. Location is great. Were delighted to see that our favorites restos like Gen Korean BBQ and Boiling Crab were a few meters away.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>While looking for a place to stay on our way to Mission San Gabriel, found this place online and opted to call them directly to reserve. Staff was friendly and she gave us a quick confirmation at a good rate. We arrived a few hours after and while checking in, we asked if we can get further discount with our AAA card and he gave us a lower rate. He then asked where we would like to stay i.e. higher or lower floor....when we said we wanted to get a good sleep, he gave us a room at the 3rd floor and away from street traffic and hallway noise.That was good! Room was spacious but a little run-down. So don't expect more than you paid for. Layout of room with the sink/vanity counter on the right and bathroom door just across the bed made me uncomfortable. Guess it was some kind of a personal pet peeve. Location is great. Were delighted to see that our favorites restos like Gen Korean BBQ and Boiling Crab were a few meters away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r158318242-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>158318242</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>TThis hotel was clean and perfect price and location, my...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TThis hotel was clean and perfect price and location, my complaint, the toilet ran all night, making the worst noise, didn't get sleep, told the mgr next day, he didn't even check it out, said he would on his rounds. Poor guests service. </t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r156727424-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>156727424</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r145698167-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>145698167</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>business stay</t>
+  </si>
+  <si>
+    <t>The service is excellent the room and the bathroom was clean but the appericane of the lobby should be better and also the breakfeast should have a better menu and also more tables and chairs there where eight (8) chairs and three (3) tables. Thank you</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r145421093-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>145421093</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>one night getaway</t>
+  </si>
+  <si>
+    <t>I always worry about seeing mold in the shower, not only was the shower clean the whole room was. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I always worry about seeing mold in the shower, not only was the shower clean the whole room was. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r145116175-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>145116175</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>I liked my stay....</t>
+  </si>
+  <si>
+    <t>Had a very pleasant stay. I usually stay at another Day's inn location, but they had no rooms available, so I came here.To my delight the location was better as well as the room-price.There are several good restaurants and quite a number of stores within walking distance.The staff was very helpful, will definitive return here if I have to be in the area again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r139446948-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>139446948</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>A real bargain</t>
+  </si>
+  <si>
+    <t>Given the price quoted I wasn't expecting to be impressed, but I was.  The room was clean and comfortable and made me feel at home.  The breakfast was simple but effective. The Wifi was free and fast.  I had minimal need to interact with the staff, but those interactions that I had were pleasant and professional.I am very happy with my decision to stay at Days Inn.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r129557470-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>129557470</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Don't recommend it!</t>
+  </si>
+  <si>
+    <t>The customer service is ridiculous. The front desk agent is unprofessional, extremely rude, condescending and down right nasty. Good location for food and clubs, but it's super noisy, especially at night. Room ok, found holes in bed sheets. Parking is small. They don't have enough room to accommodate their guests. We had to park on the street. Will not stay there again.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r122528808-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>122528808</t>
+  </si>
+  <si>
+    <t>01/04/2012</t>
+  </si>
+  <si>
+    <t>Good value for New Year's Day visit</t>
+  </si>
+  <si>
+    <t>Stayed to attend the Tournament of Roses Parade in Pasadena.  Great location-10 minute drive from the parade and lots of good restaurants within walking distance.  Super affordable compared to other lodging in the area.  Clean, fairly updated room.  Only down side would be a little noisy (not surprising for a Days Inn on News Year's weekend) and a bit skimpy on the continental breakfast.  Would definitely stay again!</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r94187623-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>94187623</t>
+  </si>
+  <si>
+    <t>01/23/2011</t>
+  </si>
+  <si>
+    <t>Ok for one night and needing just a place to sleep.</t>
+  </si>
+  <si>
+    <t>I selected this hotel, because it was no more than 1/4 mile from  where my mother is staying in an assisted living facility.  This hotel is just off of Alhambra Main Street.  Several restaurants and night clubs are situated within about 100 feet from this hotel.  Check in was painless with the office behind a stout looking plexiglass barrier leaving the impression that this maybe in a high crime area.  The lobby is small and where the continental breakfast is offered.  The free breakfast is nothing special, but expected for the price we paid for the room.  The hotel is in a U shaped configuration and therefore open to the adjacent alley and Main Street festivities.  The room is dark with thin walls and ceilings.  The bed is OK and I did sleep well, even with the noise from Main Street, people walking upstairs and the TV from the room next door. If you plan on staying here, ask for a room on the 3rd floor and in the back corner.  That may reduce the noise even further.  The best parts of the stay are the hotel staff who are cordial and polite and the proximity of several interesting looking restaurants.  I ran into one young woman who was bringing back food from the Diner.  There is a refrigerator and microwave in the room if you have lefovers.  If you're into Starbucks, there is one on the corner no more...I selected this hotel, because it was no more than 1/4 mile from  where my mother is staying in an assisted living facility.  This hotel is just off of Alhambra Main Street.  Several restaurants and night clubs are situated within about 100 feet from this hotel.  Check in was painless with the office behind a stout looking plexiglass barrier leaving the impression that this maybe in a high crime area.  The lobby is small and where the continental breakfast is offered.  The free breakfast is nothing special, but expected for the price we paid for the room.  The hotel is in a U shaped configuration and therefore open to the adjacent alley and Main Street festivities.  The room is dark with thin walls and ceilings.  The bed is OK and I did sleep well, even with the noise from Main Street, people walking upstairs and the TV from the room next door. If you plan on staying here, ask for a room on the 3rd floor and in the back corner.  That may reduce the noise even further.  The best parts of the stay are the hotel staff who are cordial and polite and the proximity of several interesting looking restaurants.  I ran into one young woman who was bringing back food from the Diner.  There is a refrigerator and microwave in the room if you have lefovers.  If you're into Starbucks, there is one on the corner no more than 50 feet from the hotel. Make sure that you keep your car parked in their lot early, because it does overflow at night, probably due to people who are parking there to visit one of the night clubs.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>I selected this hotel, because it was no more than 1/4 mile from  where my mother is staying in an assisted living facility.  This hotel is just off of Alhambra Main Street.  Several restaurants and night clubs are situated within about 100 feet from this hotel.  Check in was painless with the office behind a stout looking plexiglass barrier leaving the impression that this maybe in a high crime area.  The lobby is small and where the continental breakfast is offered.  The free breakfast is nothing special, but expected for the price we paid for the room.  The hotel is in a U shaped configuration and therefore open to the adjacent alley and Main Street festivities.  The room is dark with thin walls and ceilings.  The bed is OK and I did sleep well, even with the noise from Main Street, people walking upstairs and the TV from the room next door. If you plan on staying here, ask for a room on the 3rd floor and in the back corner.  That may reduce the noise even further.  The best parts of the stay are the hotel staff who are cordial and polite and the proximity of several interesting looking restaurants.  I ran into one young woman who was bringing back food from the Diner.  There is a refrigerator and microwave in the room if you have lefovers.  If you're into Starbucks, there is one on the corner no more...I selected this hotel, because it was no more than 1/4 mile from  where my mother is staying in an assisted living facility.  This hotel is just off of Alhambra Main Street.  Several restaurants and night clubs are situated within about 100 feet from this hotel.  Check in was painless with the office behind a stout looking plexiglass barrier leaving the impression that this maybe in a high crime area.  The lobby is small and where the continental breakfast is offered.  The free breakfast is nothing special, but expected for the price we paid for the room.  The hotel is in a U shaped configuration and therefore open to the adjacent alley and Main Street festivities.  The room is dark with thin walls and ceilings.  The bed is OK and I did sleep well, even with the noise from Main Street, people walking upstairs and the TV from the room next door. If you plan on staying here, ask for a room on the 3rd floor and in the back corner.  That may reduce the noise even further.  The best parts of the stay are the hotel staff who are cordial and polite and the proximity of several interesting looking restaurants.  I ran into one young woman who was bringing back food from the Diner.  There is a refrigerator and microwave in the room if you have lefovers.  If you're into Starbucks, there is one on the corner no more than 50 feet from the hotel. Make sure that you keep your car parked in their lot early, because it does overflow at night, probably due to people who are parking there to visit one of the night clubs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r83372234-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>83372234</t>
+  </si>
+  <si>
+    <t>10/13/2010</t>
+  </si>
+  <si>
+    <t>Beautiful, Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Close to a lot of resturants and coffee shops.  May be a little noisy at night</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r83178400-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>83178400</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>great value!</t>
+  </si>
+  <si>
+    <t>I was looking for a cheap option for a week long stay in LA and I found it in Alhambra. It's close enough to all the attractions you want to see but much cheaper than anything else I found. There are also great restaurants and a mall near by and there was some night life too! Of course, only stay there if you have a car.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r22150096-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>22150096</t>
+  </si>
+  <si>
+    <t>11/24/2008</t>
+  </si>
+  <si>
+    <t>Worst ever</t>
+  </si>
+  <si>
+    <t>The hotel is located right next door to a NIGHT CLUB which means that you can HEAR and FEEL, see the music in your room until almost 2 AM!  you can hear all noise that happens on the main street.  A car alarm from across the street that had a whole building between the hotel and it could be heard crystal clear in the hotel room. The rooms are not very clean.  Our bed had a HUGE book size BLOOD stain in it.  yes I did write blood.  No I am not kidding.  Yes we were given another room "but if that room didn't meet our standards" they only had one other room for us (direct quote).  I am not sure who else in the world wouldn't mind sleeping on a blood stain.  Anyone?Yes it is in a great area but NOT worth it.  pay a little more to stay somewhere cleaner, quieter and nicer.  TRUST ME.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>The hotel is located right next door to a NIGHT CLUB which means that you can HEAR and FEEL, see the music in your room until almost 2 AM!  you can hear all noise that happens on the main street.  A car alarm from across the street that had a whole building between the hotel and it could be heard crystal clear in the hotel room. The rooms are not very clean.  Our bed had a HUGE book size BLOOD stain in it.  yes I did write blood.  No I am not kidding.  Yes we were given another room "but if that room didn't meet our standards" they only had one other room for us (direct quote).  I am not sure who else in the world wouldn't mind sleeping on a blood stain.  Anyone?Yes it is in a great area but NOT worth it.  pay a little more to stay somewhere cleaner, quieter and nicer.  TRUST ME.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r4728205-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
+  </si>
+  <si>
+    <t>4728205</t>
+  </si>
+  <si>
+    <t>03/22/2006</t>
+  </si>
+  <si>
+    <t>OK budget hotel...</t>
+  </si>
+  <si>
+    <t>Stayed here Memorial Weekend 2005.  THis is an OK budget hotel.  Other than being a little outdated, the room was surprisingly  CLEAN, which ranks high in my booK!  The free breakfast I would pass (there's just some donuts, dry cereal).  Great location, right in the middle of everything.  Because of that, parking may be an issue because of their small lot, and you can hear nightclub music in the rooms.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2625,7238 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>130</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>169</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>169</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" t="s">
+        <v>196</v>
+      </c>
+      <c r="L27" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" t="s">
+        <v>201</v>
+      </c>
+      <c r="L28" t="s">
+        <v>202</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>203</v>
+      </c>
+      <c r="O28" t="s">
+        <v>204</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>211</v>
+      </c>
+      <c r="J30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>192</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>214</v>
+      </c>
+      <c r="X30" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" t="s">
+        <v>221</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>203</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" t="s">
+        <v>226</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>84</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>234</v>
+      </c>
+      <c r="J34" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" t="s">
+        <v>237</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>227</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" t="s">
+        <v>243</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>244</v>
+      </c>
+      <c r="O35" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>244</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>252</v>
+      </c>
+      <c r="J37" t="s">
+        <v>248</v>
+      </c>
+      <c r="K37" t="s">
+        <v>253</v>
+      </c>
+      <c r="L37" t="s">
+        <v>254</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>244</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>255</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J38" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L38" t="s">
+        <v>259</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>260</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>263</v>
+      </c>
+      <c r="J39" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" t="s">
+        <v>265</v>
+      </c>
+      <c r="L39" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>260</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>273</v>
+      </c>
+      <c r="O40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>275</v>
+      </c>
+      <c r="J41" t="s">
+        <v>276</v>
+      </c>
+      <c r="K41" t="s">
+        <v>277</v>
+      </c>
+      <c r="L41" t="s">
+        <v>278</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>279</v>
+      </c>
+      <c r="O41" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" t="s">
+        <v>282</v>
+      </c>
+      <c r="K42" t="s">
+        <v>283</v>
+      </c>
+      <c r="L42" t="s">
+        <v>284</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>285</v>
+      </c>
+      <c r="O42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>286</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>287</v>
+      </c>
+      <c r="J43" t="s">
+        <v>288</v>
+      </c>
+      <c r="K43" t="s">
+        <v>289</v>
+      </c>
+      <c r="L43" t="s">
+        <v>290</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>285</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>291</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>292</v>
+      </c>
+      <c r="J44" t="s">
+        <v>293</v>
+      </c>
+      <c r="K44" t="s">
+        <v>294</v>
+      </c>
+      <c r="L44" t="s">
+        <v>295</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>296</v>
+      </c>
+      <c r="O44" t="s">
+        <v>100</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>298</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>299</v>
+      </c>
+      <c r="J45" t="s">
+        <v>300</v>
+      </c>
+      <c r="K45" t="s">
+        <v>301</v>
+      </c>
+      <c r="L45" t="s">
+        <v>302</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>296</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>304</v>
+      </c>
+      <c r="J46" t="s">
+        <v>305</v>
+      </c>
+      <c r="K46" t="s">
+        <v>306</v>
+      </c>
+      <c r="L46" t="s">
+        <v>307</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>296</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>310</v>
+      </c>
+      <c r="J47" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" t="s">
+        <v>312</v>
+      </c>
+      <c r="L47" t="s">
+        <v>313</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>296</v>
+      </c>
+      <c r="O47" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>315</v>
+      </c>
+      <c r="J48" t="s">
+        <v>316</v>
+      </c>
+      <c r="K48" t="s">
+        <v>317</v>
+      </c>
+      <c r="L48" t="s">
+        <v>318</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>321</v>
+      </c>
+      <c r="J49" t="s">
+        <v>322</v>
+      </c>
+      <c r="K49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L49" t="s">
+        <v>324</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>319</v>
+      </c>
+      <c r="O49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" t="s">
+        <v>328</v>
+      </c>
+      <c r="K50" t="s">
+        <v>329</v>
+      </c>
+      <c r="L50" t="s">
+        <v>330</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>319</v>
+      </c>
+      <c r="O50" t="s">
+        <v>100</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>331</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>332</v>
+      </c>
+      <c r="J51" t="s">
+        <v>333</v>
+      </c>
+      <c r="K51" t="s">
+        <v>334</v>
+      </c>
+      <c r="L51" t="s">
+        <v>335</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>336</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>337</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>338</v>
+      </c>
+      <c r="J52" t="s">
+        <v>339</v>
+      </c>
+      <c r="K52" t="s">
+        <v>340</v>
+      </c>
+      <c r="L52" t="s">
+        <v>341</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>336</v>
+      </c>
+      <c r="O52" t="s">
+        <v>204</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>342</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>343</v>
+      </c>
+      <c r="J53" t="s">
+        <v>344</v>
+      </c>
+      <c r="K53" t="s">
+        <v>345</v>
+      </c>
+      <c r="L53" t="s">
+        <v>346</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>347</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>348</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>349</v>
+      </c>
+      <c r="J54" t="s">
+        <v>350</v>
+      </c>
+      <c r="K54" t="s">
+        <v>351</v>
+      </c>
+      <c r="L54" t="s">
+        <v>352</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>347</v>
+      </c>
+      <c r="O54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>353</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>354</v>
+      </c>
+      <c r="J55" t="s">
+        <v>355</v>
+      </c>
+      <c r="K55" t="s">
+        <v>356</v>
+      </c>
+      <c r="L55" t="s">
+        <v>357</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>347</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>358</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>359</v>
+      </c>
+      <c r="J56" t="s">
+        <v>360</v>
+      </c>
+      <c r="K56" t="s">
+        <v>361</v>
+      </c>
+      <c r="L56" t="s">
+        <v>362</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>363</v>
+      </c>
+      <c r="O56" t="s">
+        <v>84</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>364</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>365</v>
+      </c>
+      <c r="J57" t="s">
+        <v>366</v>
+      </c>
+      <c r="K57" t="s">
+        <v>367</v>
+      </c>
+      <c r="L57" t="s">
+        <v>368</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>363</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>369</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>370</v>
+      </c>
+      <c r="J58" t="s">
+        <v>371</v>
+      </c>
+      <c r="K58" t="s">
+        <v>372</v>
+      </c>
+      <c r="L58" t="s">
+        <v>373</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>363</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>374</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>375</v>
+      </c>
+      <c r="J59" t="s">
+        <v>376</v>
+      </c>
+      <c r="K59" t="s">
+        <v>377</v>
+      </c>
+      <c r="L59" t="s">
+        <v>378</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>379</v>
+      </c>
+      <c r="O59" t="s">
+        <v>100</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>380</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>381</v>
+      </c>
+      <c r="J60" t="s">
+        <v>382</v>
+      </c>
+      <c r="K60" t="s">
+        <v>383</v>
+      </c>
+      <c r="L60" t="s">
+        <v>384</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>379</v>
+      </c>
+      <c r="O60" t="s">
+        <v>100</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>385</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>386</v>
+      </c>
+      <c r="J61" t="s">
+        <v>387</v>
+      </c>
+      <c r="K61" t="s">
+        <v>388</v>
+      </c>
+      <c r="L61" t="s">
+        <v>389</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>390</v>
+      </c>
+      <c r="O61" t="s">
+        <v>84</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>393</v>
+      </c>
+      <c r="J62" t="s">
+        <v>394</v>
+      </c>
+      <c r="K62" t="s">
+        <v>395</v>
+      </c>
+      <c r="L62" t="s">
+        <v>396</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>397</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>398</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>399</v>
+      </c>
+      <c r="J63" t="s">
+        <v>400</v>
+      </c>
+      <c r="K63" t="s">
+        <v>401</v>
+      </c>
+      <c r="L63" t="s">
+        <v>402</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>397</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>404</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>405</v>
+      </c>
+      <c r="J64" t="s">
+        <v>406</v>
+      </c>
+      <c r="K64" t="s">
+        <v>407</v>
+      </c>
+      <c r="L64" t="s">
+        <v>408</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>409</v>
+      </c>
+      <c r="O64" t="s">
+        <v>100</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>410</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>411</v>
+      </c>
+      <c r="J65" t="s">
+        <v>412</v>
+      </c>
+      <c r="K65" t="s">
+        <v>413</v>
+      </c>
+      <c r="L65" t="s">
+        <v>414</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>409</v>
+      </c>
+      <c r="O65" t="s">
+        <v>84</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>415</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>416</v>
+      </c>
+      <c r="J66" t="s">
+        <v>417</v>
+      </c>
+      <c r="K66" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" t="s">
+        <v>418</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>409</v>
+      </c>
+      <c r="O66" t="s">
+        <v>84</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>419</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>420</v>
+      </c>
+      <c r="J67" t="s">
+        <v>421</v>
+      </c>
+      <c r="K67" t="s">
+        <v>422</v>
+      </c>
+      <c r="L67" t="s">
+        <v>423</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>409</v>
+      </c>
+      <c r="O67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>424</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>425</v>
+      </c>
+      <c r="J68" t="s">
+        <v>426</v>
+      </c>
+      <c r="K68" t="s">
+        <v>427</v>
+      </c>
+      <c r="L68" t="s">
+        <v>428</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>429</v>
+      </c>
+      <c r="O68" t="s">
+        <v>100</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>430</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>431</v>
+      </c>
+      <c r="J69" t="s">
+        <v>432</v>
+      </c>
+      <c r="K69" t="s">
+        <v>433</v>
+      </c>
+      <c r="L69" t="s">
+        <v>434</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>429</v>
+      </c>
+      <c r="O69" t="s">
+        <v>84</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>435</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>436</v>
+      </c>
+      <c r="J70" t="s">
+        <v>437</v>
+      </c>
+      <c r="K70" t="s">
+        <v>438</v>
+      </c>
+      <c r="L70" t="s">
+        <v>439</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>429</v>
+      </c>
+      <c r="O70" t="s">
+        <v>100</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>440</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>441</v>
+      </c>
+      <c r="J71" t="s">
+        <v>442</v>
+      </c>
+      <c r="K71" t="s">
+        <v>443</v>
+      </c>
+      <c r="L71" t="s">
+        <v>444</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>445</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>446</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>447</v>
+      </c>
+      <c r="J72" t="s">
+        <v>448</v>
+      </c>
+      <c r="K72" t="s">
+        <v>449</v>
+      </c>
+      <c r="L72" t="s">
+        <v>450</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>451</v>
+      </c>
+      <c r="O72" t="s">
+        <v>100</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>453</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>454</v>
+      </c>
+      <c r="J73" t="s">
+        <v>455</v>
+      </c>
+      <c r="K73" t="s">
+        <v>456</v>
+      </c>
+      <c r="L73" t="s">
+        <v>457</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>451</v>
+      </c>
+      <c r="O73" t="s">
+        <v>84</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>458</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>459</v>
+      </c>
+      <c r="J74" t="s">
+        <v>460</v>
+      </c>
+      <c r="K74" t="s">
+        <v>461</v>
+      </c>
+      <c r="L74" t="s">
+        <v>462</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>463</v>
+      </c>
+      <c r="O74" t="s">
+        <v>100</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>465</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>466</v>
+      </c>
+      <c r="J75" t="s">
+        <v>467</v>
+      </c>
+      <c r="K75" t="s">
+        <v>468</v>
+      </c>
+      <c r="L75" t="s">
+        <v>469</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>463</v>
+      </c>
+      <c r="O75" t="s">
+        <v>100</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>470</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>471</v>
+      </c>
+      <c r="J76" t="s">
+        <v>472</v>
+      </c>
+      <c r="K76" t="s">
+        <v>473</v>
+      </c>
+      <c r="L76" t="s">
+        <v>474</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>463</v>
+      </c>
+      <c r="O76" t="s">
+        <v>84</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>476</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>477</v>
+      </c>
+      <c r="J77" t="s">
+        <v>478</v>
+      </c>
+      <c r="K77" t="s">
+        <v>479</v>
+      </c>
+      <c r="L77" t="s">
+        <v>480</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>463</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>481</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>482</v>
+      </c>
+      <c r="J78" t="s">
+        <v>483</v>
+      </c>
+      <c r="K78" t="s">
+        <v>484</v>
+      </c>
+      <c r="L78" t="s">
+        <v>485</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>486</v>
+      </c>
+      <c r="O78" t="s">
+        <v>100</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>487</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>488</v>
+      </c>
+      <c r="J79" t="s">
+        <v>489</v>
+      </c>
+      <c r="K79" t="s">
+        <v>490</v>
+      </c>
+      <c r="L79" t="s">
+        <v>491</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>486</v>
+      </c>
+      <c r="O79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>492</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>493</v>
+      </c>
+      <c r="J80" t="s">
+        <v>494</v>
+      </c>
+      <c r="K80" t="s">
+        <v>495</v>
+      </c>
+      <c r="L80" t="s">
+        <v>496</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>497</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>498</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>499</v>
+      </c>
+      <c r="J81" t="s">
+        <v>500</v>
+      </c>
+      <c r="K81" t="s">
+        <v>501</v>
+      </c>
+      <c r="L81" t="s">
+        <v>502</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>497</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>503</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>504</v>
+      </c>
+      <c r="J82" t="s">
+        <v>505</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s">
+        <v>506</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>497</v>
+      </c>
+      <c r="O82" t="s">
+        <v>204</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>508</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>509</v>
+      </c>
+      <c r="J83" t="s">
+        <v>510</v>
+      </c>
+      <c r="K83" t="s">
+        <v>511</v>
+      </c>
+      <c r="L83" t="s">
+        <v>512</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>513</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>515</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>516</v>
+      </c>
+      <c r="J84" t="s">
+        <v>517</v>
+      </c>
+      <c r="K84" t="s">
+        <v>518</v>
+      </c>
+      <c r="L84" t="s">
+        <v>519</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>520</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>521</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>522</v>
+      </c>
+      <c r="J85" t="s">
+        <v>523</v>
+      </c>
+      <c r="K85" t="s">
+        <v>524</v>
+      </c>
+      <c r="L85" t="s">
+        <v>525</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>520</v>
+      </c>
+      <c r="O85" t="s">
+        <v>84</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>526</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>527</v>
+      </c>
+      <c r="J86" t="s">
+        <v>528</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s">
+        <v>506</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>529</v>
+      </c>
+      <c r="O86" t="s">
+        <v>100</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>530</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>531</v>
+      </c>
+      <c r="J87" t="s">
+        <v>532</v>
+      </c>
+      <c r="K87" t="s">
+        <v>533</v>
+      </c>
+      <c r="L87" t="s">
+        <v>534</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>535</v>
+      </c>
+      <c r="O87" t="s">
+        <v>100</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>536</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>537</v>
+      </c>
+      <c r="J88" t="s">
+        <v>538</v>
+      </c>
+      <c r="K88" t="s">
+        <v>539</v>
+      </c>
+      <c r="L88" t="s">
+        <v>540</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>541</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>542</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>543</v>
+      </c>
+      <c r="J89" t="s">
+        <v>544</v>
+      </c>
+      <c r="K89" t="s">
+        <v>545</v>
+      </c>
+      <c r="L89" t="s">
+        <v>546</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>547</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>548</v>
+      </c>
+      <c r="X89" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>551</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>552</v>
+      </c>
+      <c r="J90" t="s">
+        <v>553</v>
+      </c>
+      <c r="K90" t="s">
+        <v>554</v>
+      </c>
+      <c r="L90" t="s">
+        <v>555</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>547</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>548</v>
+      </c>
+      <c r="X90" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>557</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>558</v>
+      </c>
+      <c r="J91" t="s">
+        <v>559</v>
+      </c>
+      <c r="K91" t="s">
+        <v>560</v>
+      </c>
+      <c r="L91" t="s">
+        <v>561</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>562</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>563</v>
+      </c>
+      <c r="X91" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>566</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>567</v>
+      </c>
+      <c r="J92" t="s">
+        <v>568</v>
+      </c>
+      <c r="K92" t="s">
+        <v>569</v>
+      </c>
+      <c r="L92" t="s">
+        <v>570</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>571</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>572</v>
+      </c>
+      <c r="X92" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>575</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>576</v>
+      </c>
+      <c r="J93" t="s">
+        <v>577</v>
+      </c>
+      <c r="K93" t="s">
+        <v>578</v>
+      </c>
+      <c r="L93" t="s">
+        <v>579</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>571</v>
+      </c>
+      <c r="O93" t="s">
+        <v>100</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>572</v>
+      </c>
+      <c r="X93" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>581</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>582</v>
+      </c>
+      <c r="J94" t="s">
+        <v>583</v>
+      </c>
+      <c r="K94" t="s">
+        <v>584</v>
+      </c>
+      <c r="L94" t="s">
+        <v>585</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>586</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>572</v>
+      </c>
+      <c r="X94" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>588</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>589</v>
+      </c>
+      <c r="J95" t="s">
+        <v>590</v>
+      </c>
+      <c r="K95" t="s">
+        <v>591</v>
+      </c>
+      <c r="L95" t="s">
+        <v>592</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>586</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>594</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>595</v>
+      </c>
+      <c r="J96" t="s">
+        <v>596</v>
+      </c>
+      <c r="K96" t="s">
+        <v>597</v>
+      </c>
+      <c r="L96" t="s">
+        <v>598</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>586</v>
+      </c>
+      <c r="O96" t="s">
+        <v>100</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>572</v>
+      </c>
+      <c r="X96" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>600</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>601</v>
+      </c>
+      <c r="J97" t="s">
+        <v>602</v>
+      </c>
+      <c r="K97" t="s">
+        <v>603</v>
+      </c>
+      <c r="L97" t="s">
+        <v>604</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>605</v>
+      </c>
+      <c r="O97" t="s">
+        <v>84</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>572</v>
+      </c>
+      <c r="X97" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>607</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>608</v>
+      </c>
+      <c r="J98" t="s">
+        <v>609</v>
+      </c>
+      <c r="K98" t="s">
+        <v>610</v>
+      </c>
+      <c r="L98" t="s">
+        <v>611</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>612</v>
+      </c>
+      <c r="O98" t="s">
+        <v>204</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>572</v>
+      </c>
+      <c r="X98" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>614</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>615</v>
+      </c>
+      <c r="J99" t="s">
+        <v>616</v>
+      </c>
+      <c r="K99" t="s">
+        <v>617</v>
+      </c>
+      <c r="L99" t="s">
+        <v>618</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>619</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>620</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>621</v>
+      </c>
+      <c r="J100" t="s">
+        <v>622</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s">
+        <v>506</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>623</v>
+      </c>
+      <c r="O100" t="s">
+        <v>100</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>572</v>
+      </c>
+      <c r="X100" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>624</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>625</v>
+      </c>
+      <c r="J101" t="s">
+        <v>626</v>
+      </c>
+      <c r="K101" t="s">
+        <v>627</v>
+      </c>
+      <c r="L101" t="s">
+        <v>628</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>629</v>
+      </c>
+      <c r="O101" t="s">
+        <v>84</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>630</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>631</v>
+      </c>
+      <c r="J102" t="s">
+        <v>632</v>
+      </c>
+      <c r="K102" t="s">
+        <v>633</v>
+      </c>
+      <c r="L102" t="s">
+        <v>634</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>629</v>
+      </c>
+      <c r="O102" t="s">
+        <v>100</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>572</v>
+      </c>
+      <c r="X102" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>636</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>637</v>
+      </c>
+      <c r="J103" t="s">
+        <v>638</v>
+      </c>
+      <c r="K103" t="s">
+        <v>639</v>
+      </c>
+      <c r="L103" t="s">
+        <v>640</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>629</v>
+      </c>
+      <c r="O103" t="s">
+        <v>84</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>641</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>642</v>
+      </c>
+      <c r="J104" t="s">
+        <v>643</v>
+      </c>
+      <c r="K104" t="s">
+        <v>644</v>
+      </c>
+      <c r="L104" t="s">
+        <v>645</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>646</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>647</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>648</v>
+      </c>
+      <c r="J105" t="s">
+        <v>649</v>
+      </c>
+      <c r="K105" t="s">
+        <v>650</v>
+      </c>
+      <c r="L105" t="s">
+        <v>651</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>652</v>
+      </c>
+      <c r="O105" t="s">
+        <v>204</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>653</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>654</v>
+      </c>
+      <c r="J106" t="s">
+        <v>655</v>
+      </c>
+      <c r="K106" t="s">
+        <v>656</v>
+      </c>
+      <c r="L106" t="s">
+        <v>657</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>658</v>
+      </c>
+      <c r="O106" t="s">
+        <v>60</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>659</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>660</v>
+      </c>
+      <c r="J107" t="s">
+        <v>661</v>
+      </c>
+      <c r="K107" t="s">
+        <v>662</v>
+      </c>
+      <c r="L107" t="s">
+        <v>663</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>664</v>
+      </c>
+      <c r="O107" t="s">
+        <v>100</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>666</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>667</v>
+      </c>
+      <c r="J108" t="s">
+        <v>668</v>
+      </c>
+      <c r="K108" t="s">
+        <v>669</v>
+      </c>
+      <c r="L108" t="s">
+        <v>670</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>671</v>
+      </c>
+      <c r="O108" t="s">
+        <v>100</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>672</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>673</v>
+      </c>
+      <c r="J109" t="s">
+        <v>674</v>
+      </c>
+      <c r="K109" t="s">
+        <v>675</v>
+      </c>
+      <c r="L109" t="s">
+        <v>676</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>677</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>678</v>
+      </c>
+      <c r="J110" t="s">
+        <v>679</v>
+      </c>
+      <c r="K110" t="s">
+        <v>680</v>
+      </c>
+      <c r="L110" t="s">
+        <v>681</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>682</v>
+      </c>
+      <c r="O110" t="s">
+        <v>100</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>28270</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>684</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>685</v>
+      </c>
+      <c r="J111" t="s">
+        <v>686</v>
+      </c>
+      <c r="K111" t="s">
+        <v>687</v>
+      </c>
+      <c r="L111" t="s">
+        <v>688</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>688</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_195.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_195.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="796">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Heels23</t>
+  </si>
+  <si>
     <t>06/30/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>To keep my personal travel expenses down, I stayed here to be within a 5 minute drive to my father's assisted living community. This place did the trick. The exterior decor and room interiors have an aged fill to them, but overall my room was fine. While in need of some freshening up, overall my room was fine. There is traffic noise, being a half block to Main St, and the air conditioner was noisy. So, I slept with air plugs to block the noise. There is parking but it is limited, it gets filled in the evening. The positives include a very convenient location and the staff was very helpful and friendly. The main negative was the terrible breakfast provided, very limited and sad selections - I ended up going to a nearby Starbucks. Overall, this place served its purpose, but I would probably not stay here again.More</t>
   </si>
   <si>
+    <t>happygram10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r573859593-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>vermeling</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r568538396-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r561766724-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>E1613TLanthonyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r550981615-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t xml:space="preserve">The rooms kinda small but kept clean the hotel is in the middle of town there’s a pizza place right down the street and a star bucks very friendly at check in and understand English </t>
   </si>
   <si>
+    <t>Phong T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r542899986-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Y7589GMcharlesm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r537942687-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -285,6 +306,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>S7788QMlisam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r537688902-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -300,6 +324,9 @@
     <t xml:space="preserve">Room was spacious and clean and the bed was comfortable. Although other reviews warned about a lack of parking, I had no issues the two nights I was there. The staff was kind and helpful. The only issue I had was that I found it to be a little noisy, but if you are a heavy sleeper, you will not notice. </t>
   </si>
   <si>
+    <t>marquezgloria22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r529640003-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -321,6 +348,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>brianv823</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r512291296-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t>Reservation online was easy , we booked last minute so prices were higher then normal but still a great deal for what you get . Room was clean , everything as expected from days inn . I love booking with them because of small things like having a microwave , iron , hair dryer and bonus they had a washer and dryer . After a messy and stinky visit to the beach washing our towels was heaven sent .. Bonus they have breakfast in the office until 10am . The office staff were actually nice and calm guys , compared to other hotel staff around the same area they were great .!!More</t>
   </si>
   <si>
+    <t>Theodore D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r510779718-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -357,6 +390,9 @@
     <t>This facility was better than anticipated, and defiantly surpasses my overall experiences at many "Day's Inn", please note that I have Diamond Status at Wyndham which is Days Parent Company.I stayed at this location using partial points, there is not enough parking, no swimming pool, an average breakfast, but my room was really really good!I would recommend this property to any overnight traveler in the Alhambra area.</t>
   </si>
   <si>
+    <t>Patrice H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r507937852-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -375,6 +411,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>kathyt416</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r499312023-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -393,6 +432,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Mattermind</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r487391293-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -414,6 +456,9 @@
     <t>We live near Los Angeles, yet occasionally book rooms near strategic locations due to traffic and urban congestion.  So when my wife needed to be in Alhambra for 7AM eye surgery, I went looking for a place that would put us where we needed to be with a minimum of hassle.  After lots of research on Trip Advisor, I chose Days Inn and it couldn't have turned out any better!  The location is perfect.  The room was quiet and comfortable.  Management was accommodating when I explained my situation.  At the time of booking, the jacuzzi room was available for a bit extra and believe me, that made for nice pampering to relax my wife before her surgery.  I'm constantly on the lookout for strategic motels in LA for concerts, early flights out of LAX and times when we visit Disneyland or a Dodgers game and just don't feel like fighting traffic.  I'm thrilled to add Days Inn, Alhambra to the list of locations I can turn to for a quiet, comfortable night at a reasonable price.  And if the jacuzzi happens to be available, so much the better!More</t>
   </si>
   <si>
+    <t>johnvH402XV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r487166330-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -432,6 +477,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Richard A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r482750989-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -447,6 +495,9 @@
     <t>everything during our stay was nice. we were very much surprised at the cleanliness of the room.thank you for making our stay a very pleasant one</t>
   </si>
   <si>
+    <t>mbemt2000_mg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r480087160-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -462,6 +513,9 @@
     <t>I would like to share with others that it was very hard to find a place to stay on our trip to visit our Son....when we finally got situated here it was worth the wait and we will return in the future...highly recommended....</t>
   </si>
   <si>
+    <t>carmenmZ9838NT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r479604202-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -477,6 +531,9 @@
     <t>Each room has refrigerator and microwave. Wifi is included as well as new flat screen tv. Parking spots are limited and staff does best they can to accommodate vehicles. Only draw back is that in my room (303) the water was warm in the shower but temperature didn't get hotter when the dial was turned further on hot. Price reasonable for the location, room amenities and staff service. They did a good job. Continental breakfast available. Plenty of restaurants and shops around too.</t>
   </si>
   <si>
+    <t>Gloria G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r476769111-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -495,6 +552,9 @@
     <t>Stayed here for a friend's wedding. The room was clean, comfortable and was located in a great location. Staff was very friendly and accommodating. There's nothing fancy about this hotel but it's well maintained and is fairly priced for the room you get. They offer continental breakfast which is always a plus. The only negative thing I have to say is that the parking is extremely small and they only allow one car per room, so if you have additional guests, they will have to park in the parking structure across the street, which you're only allowed to park in until 2am or if you'd like to park in the street, you'll have to get an overnight Alhambra parking pass. (A tip: you can get the pass at any 7 eleven near Alhambra and just so you know, the permit is only required if you park between 2am and 6am on the street)More</t>
   </si>
   <si>
+    <t>wayneg876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r474830970-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -510,6 +570,9 @@
     <t>This place is great.  The rooms are clean and comfortable with a staff that is interested in your stay and comfort.  The area is great for food shops and try Carol's nails on 1st for a real manicure.  You are safe to walk the neighborhood and do not need your car to move around.  I think this is my best new place to stay in the greater LA area.  Make sure you visit Charlie's Trio cafe on the corner for a great happy hour where food and drinks are plentiful and priced well.</t>
   </si>
   <si>
+    <t>grammie d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r473951975-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -531,6 +594,9 @@
     <t>Last minute trip for family funeral in the area. Since I only needed 2 nights and only planned to sleep there and didn't want to pay 300 a night for "good" hotel, I took a chance.  Although my expectations were not high, I did envision a basic super 8/motel 6accommodation. Sorry to say, this place did not even rise to that level. The room was nothing like the photos displayed on their website. A king size bed, two night stands, a coffee table, a love seat, a tv stand, a mini fridge and more were so crammed into the small room, I literally had to walk sideways to get to the bathroom.  The furniture itself was thrift store quality and shabby.  The towels were threadbare, there was a large patch on the front of the tub where the porcelain had chipped off and was unrepaired.  The only good thing was that it WAS clean and well located to eateries and the center of town. Thus, the two stars. I checked out after night #1.  Would not return.More</t>
   </si>
   <si>
+    <t>Mztaz2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r463803910-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -546,6 +612,9 @@
     <t>The hotel is a little dated but the maintained well. The beds are very comfortable and the room is very comfortable.The location is near restaurants and bars. There is easy access to several freeways.</t>
   </si>
   <si>
+    <t>Chanel T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r460161752-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -561,6 +630,9 @@
     <t xml:space="preserve">Staff was courteous, rooms were clean and comfortable. Due to some construction was a bi noisey on last day. I would stay here again! </t>
   </si>
   <si>
+    <t>daveoakhurst</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r456744546-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -579,6 +651,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>DaveW1094</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r449923545-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -597,6 +672,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>HerrSchenk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r448693345-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -612,6 +690,9 @@
     <t xml:space="preserve">Nothing fancy but also nothing wrong. Clean, well cared for, friendly staff. Location was perfect for me, central to old friends. </t>
   </si>
   <si>
+    <t>crystalr86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r446047412-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -633,6 +714,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>waltermA9475HV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r444352318-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -646,6 +730,9 @@
   </si>
   <si>
     <t>Was there for the weekend is perfectly located in the heart of the city walking distance to all entertainment movies and dinning.</t>
+  </si>
+  <si>
+    <t>CoyoteLovely</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r444273891-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
@@ -679,6 +766,9 @@
 This hotel is not really in an area that it's likely for travelers to NOT come by car (no hospitals nearby for people to be staying to watch...Pros: Considerable! The Breakfast is perfectly adequate and was better than what I was expecting. In specific - the coffee was decent (especially when you consider it's hotel coffee) and the fruit was very nice and fresh, and there were some nice options for toast, cereal, and oatmeal. The Staff was excellent. Everyone I spoke to was very nice, and they always had a smile for me. The room was lovely and clean - no complaints there. Bonus: There was a Star Wars marathon on TV when I was resting in my room, I really enjoyed that. Cons: Parking is an issue, and it's the only reason this hotel doesn't get a five-star rating. They LITERALLY have twice as many rooms as they do parking spaces, and though the center around the hotel is predominantly walking friendly - there aren't nearly enough spaces on the street to make up for the lack of parking on the hotel property. Saturday night, I had to park a block down, at midnight, on the street, walk back for a parking permit, and walk back to my car. Lucky I like a nice walk to clear my head, and I'm not afraid of assailants - but I can imagine other single women would be VERY off-put. This hotel is not really in an area that it's likely for travelers to NOT come by car (no hospitals nearby for people to be staying to watch family members, not near a theme park where someone might grab a shuttle, etc.) It's my assumption that any customers who come to the hotel are probably driving in, and need somewhere to put their car overnight. My recommendation to the hotel manager/owner is to make a deal with the parking garage across the street from your hotel for your customers to use spaces when your lot is full.More</t>
   </si>
   <si>
+    <t>322jessea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r436240793-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -694,6 +784,9 @@
     <t>Breakfast was basic, parking was awful. Less than 20 spaces for entire hotel. Had to park in street with hotel validation.</t>
   </si>
   <si>
+    <t>149arturog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r431539826-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -712,6 +805,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>54klast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r430343565-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -727,6 +823,9 @@
     <t xml:space="preserve">The price was very good, Staff was very helpful and friendly. Bonus points for having the microwave and refrigerator. A little older but overall, I felt comfortable and safe and would recommend staying here. </t>
   </si>
   <si>
+    <t>effegee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r427644227-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -745,6 +844,9 @@
     <t>This property is comfortable and very convenient to the purpose of our visit in nearby East L.A. The room this time was not one of the recently renovated ones but still quite serviceable. There are many food options within easy walking distance, including a Starbucks right next door on Main St. On-property parking is tight (we lucked out all five nights this time) but the property provides the required city permit for overnight parking on First St. upon request, usually allowing you to park within 1/4 block.One word of caution: There always seems to be some sort of construction noise from the adjacent commercial property along Main St. that starts before 8AM on Saturday morning. This time it was a generator or air compressor that started around 7:30 and ran for an hour.More</t>
   </si>
   <si>
+    <t>974jeffreyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r421228682-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -766,6 +868,9 @@
     <t>This Days Inn is in poor shape. The man that checked me in was nice enough, but offered little in the way of parking. I was directed to find a spot on the street because their parking lot does not have enough spaces for the number of rooms they have available. I found my spot on the street and then lugged my bags up to the room via a very sketchy elevator (inspection was expired). I had arrived late (after 11 PM), so I was pretty tired and ready to fall into bed for the night. The smell that met me at the door was disgusting. The window was left open and I simply went to be and left the window open. The shower barely dispensed enough water to get wet but I was able to bathe. The bedspread was disgusting and spent the entirety of my stay on the floor. I had to unplug the refrigerator because it made so much noise. I seriously thought of going somewhere else, but I was too tired. I would never stay there again. What A DUMP!More</t>
   </si>
   <si>
+    <t>Etta S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r418979198-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -781,6 +886,9 @@
     <t>The pictures are very misleading. I DO NOT recommend this hotel and am surprised that Wyndham is associated with this place. The tile in the bathroom was broken, the room smelled badly and there was hair on the floor...not mine. I don't have a lot of $$$ and I paid $144+ for a room that isn't even worth $60. I wish there was a money back guarantee.  The plus?? The staff were friendly.</t>
   </si>
   <si>
+    <t>V2988FQrichards</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r418864124-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -791,6 +899,9 @@
   </si>
   <si>
     <t>My wife and I traveled to Alhambra to visit her sisters and other visiting guests that had come in from out of town. So because of lack of sleeping quarters went had to rent a room. we ended up at the Days Inn in alhambra. The room was clean and the beds were quite comfy. I would definitely stay again.</t>
+  </si>
+  <si>
+    <t>inthe831</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r411648881-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
@@ -822,6 +933,9 @@
 I didn't go down for the...My dad and I were unfortunately in town for a funeral last week.  The Days Inn Alhambra was two blocks away from the funeral home and I wanted my dad to be able to easily walk to and from the service without getting lost.  We arrived from Long Beach airport by bus and walked the five blocks from N Atlantic Blvd, which gave us a chance to check out the many shops and restaurants along Main St.  The only one we actually stopped in was 85C Degrees Bakery (at the corner of Main St &amp; 3rd) which we'd heard about but had never been.Check-in was smooth.  The 2 double beds room was clean and comfortable.  There was a small refrigerator, a small microwave, and a coffee maker.  The shower/tub and toilet are separate from the sink and large counter space.  There were a few hangers and a full size ironing board and iron.  The only tiny things I felt the room lacked were bedside electrical outlets and an alarm clock.  We had to charge our phones and tablet across the room on the desk.  Not a big deal, but unusual in this day and age.  No problems with the wifi signal.We didn't hear much noise if any at all.  The doors and windows face inward, neither street.  The floors are pretty solid, meaning you don't hear your upstairs neighbor's every booming footstep.I didn't go down for the complimentary breakfast in the small lobby (6-10 am, I think), but my dad had a bowl of oatmeal and a cup of coffee.  We left at check-out time 11:00 and crossed paths with one of the friendly housekeepers on the way to the elevator.This isn't a shiny brand new hotel, but all in all, a great one-nighter in a place we'd be happy to stay again.(If I'd known there were so few photos, I would have taken more than just our room.)More</t>
   </si>
   <si>
+    <t>Brenda G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r410826890-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -840,6 +954,9 @@
     <t>As said in other reviews, the front desk people are considerate and professional.  The gentleman at the desk noticed that I have some mobility problems (though I am not substantially disabled) and gave me the room closest to the elevator.   Not only is it close to many diverse ethnic restaurants, as well as a diner and Fosselman's ice Cream just down the street.  the area guide includes many of them including those that deliver.If you have children with you, there is a small but lovely aquarium in the lobby.I was alone, so the fact that they have only one parking space per room and that there is no overnight street parking was not a problem.  For those sharing a room, it might be.Everything was clean and neat.  Lots of TV channels. All rooms face the parking lot.More</t>
   </si>
   <si>
+    <t>marcandjen2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r401531436-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -858,6 +975,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>88Happytraveler88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r383198550-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -876,6 +996,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>octravelr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r367254430-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -894,6 +1017,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Erik S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r365370628-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -909,6 +1035,9 @@
     <t xml:space="preserve">Not a very good place to stay. Loud into the night. Poorly maintained facility. I slept in my own sleeping bag waking several times to the loud commotions in the alleyway. </t>
   </si>
   <si>
+    <t>Agnes L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r352131439-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -930,6 +1059,9 @@
     <t>Location and price are attractive; breakfast is very basic; on-premises parking is only about 20 spaces.  We had to go back to the front office twice to get new keys when we checked in, since they would not open the room we were assigned.  Biggest complaint would be that they have a lot of smokers who just go outside the non-smoking rooms on the balcony and spread their noxious fumes  into the rooms where other guests are staying.  We don't like the smell of smoke, and it makes us nervous that the management will tell us we were smoking in our room and unjustly charge a cleaning fee!  They should establish a "smokers corner" away from the guest rooms and require smokers to go there.More</t>
   </si>
   <si>
+    <t>almoana7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r350881900-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -945,6 +1077,9 @@
     <t>Reserved  King Bed room on-line. At check in was given a room with two queen beds. Was told they had no more King Rooms. I made a point to say I wanted a room that wasn't going to be noisy. Room was on 2nd floor. Room above on third floor had two kids that "stomped" across the floor till late at nite and again beginning at 5am. Air conditioning filter smelled like it hadn't been changed in a long time. I was very disappointed with the room. Reservation was for two nights, cancelled second night!</t>
   </si>
   <si>
+    <t>Maximilianus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r350579453-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -963,6 +1098,9 @@
     <t>Do NOT stay in this hotel EVER!!!  The reason I stayed here was because I had an event the very next day and it was going to take place at 07:00 so I decided to stay right next door but man oh man, what a mistake that was! The noise from the MAIN  St.,the noise from the alley behind the hotel,the noise from the parking lot inside the hotel, the noise from inside the hotel,the noise from the other rooms slamming their doors...noise...noise...noise!!!Dirty bathroom, not enough outlets, no tissue paper in the bathroom,old pillows, dirty tub, a very old sofa in the bedroom that did not belong there!!! Do  not stay in this hotel....oh, and the breakfast was terrible.More</t>
   </si>
   <si>
+    <t>miamouse66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r348681958-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -978,6 +1116,9 @@
     <t>Have stayed here several times. And each room has been very comfortable. Very roomy. Breakfast is ok. Maybe some waffles would make it perfect. Just kidding. The staff is great. Thank you dave for all your help. Thanks to the night clerk whose name i cant pronounce. And lastly thank you to my friend in housekeeping. Dont know her name but she is so friendly. Have told several people about this hotel. Would stay again and again if i need to.</t>
   </si>
   <si>
+    <t>cathywF7828HM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r344369250-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -996,6 +1137,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Sandra D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r341814317-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1014,6 +1158,9 @@
     <t>I needed just an overnight recently for a meeting in LA.  I booked the hotel at the last minute, and rate was fine, nothing to rave about.  But the room exceeded my expectations.  The bathroom was immaculate!  The beds were nice, good quality, and pillow top, tons of pillows, microwave and fridge in the room.  And the biggest surprise was the continental breakfast. I was just expecting coffee and a piece of fruit, and maybe a danish, but what I found was several kinds of cereals, juice, milk, coffee, several kinds of bread for toast, peanut butter, and yogurt.   We had a late arrival, and they called me to check to see if I was still coming, and the gentleman at the front desk was very very nice.  I honestly couldn't have asked for anything better.More</t>
   </si>
   <si>
+    <t>Mariana A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r337567875-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1029,6 +1176,9 @@
     <t>We had stayed there last year and really thought the hotel was good for the price, this time around it felt dirty, outdated, broken/moldy tiles in bathroom, no parking, noisey, dirty Kleenex on floor. Continental breakfast was a joke, serving stale cereal!</t>
   </si>
   <si>
+    <t>Karen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r336690620-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1047,6 +1197,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>neupanenirakar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r335787178-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1080,6 +1233,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Ramiro O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r332182740-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1095,6 +1251,9 @@
     <t>Great I loved it, everything was perfect next time when I have business or training for the marines its the first hotel I'll go to I truly recommend it to all of you who need a hotel. The service was great, the rooms were nice and clean and with breakfast in the mornings its just great.</t>
   </si>
   <si>
+    <t>peterrH9774RQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r330612433-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1110,6 +1269,9 @@
     <t xml:space="preserve">I have stayed at many places. The surrounding neighborhood was nice. The parking area was lighted. The room was clean and the towels etc. were newer. </t>
   </si>
   <si>
+    <t>gary w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r322515060-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1128,6 +1290,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Sally G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r320912632-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1143,6 +1308,9 @@
     <t xml:space="preserve">The staff was very friendly and helpful. The room was nice and very clean. I enjoyed my stay. The maid service was great. I would recommend this Inn to others. The only problem was the parking. Otherwise it was a great stay </t>
   </si>
   <si>
+    <t>toothdoc857</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r319410908-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1158,6 +1326,9 @@
     <t>Room was clean and comfortable. Wi-fi was a little tricky--could have been my laptop. Did not experience complimentary breakfast. Easy check in/check out. Good value. Easy walk to Starbucks and other restaurants.</t>
   </si>
   <si>
+    <t>Evonte R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r306773121-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1176,6 +1347,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>danielhQ6532HR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r296119444-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1189,6 +1363,9 @@
   </si>
   <si>
     <t>The room was full if shoddy repairs. I was on the second floor and a part if the floor was not level. Secondly the free continental breakfast was meager compared to the industry standard. No waffles :(</t>
+  </si>
+  <si>
+    <t>horseshoebill</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r294526080-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
@@ -1224,6 +1401,9 @@
 If you doing business the city hall and library are only in the next block down from Day's Inn, as is the court house etc....Hello,The folks running this facility are very friendly and accommodating. The cleaning staff are also polite, friendly and welcoming.They even had business cards of various businesses to hand out to guest, the one I seen a women asked about photo copy services and he handed her a business card for a place just down the street.I would highly recommend this Day's Inn, and it's excellent location in downtown Alhambra, with so many, something like 40 nice restaurants, a theater and Dr. John Chao, a world famous dentist all with a couple blocks.Rich's Char Burger has great eats, opens at 6am and every Friday and Saturday night has fun Hispanic and other dance tunes, with sometimes over 100 people showing up. Main street Diner across the street, also has good eats. Both have nice outdoor eating areas, as many places down that way.There is just about any nationality of food to enjoy, I see many other restaurants I'd like to try, the East Indian is very good, and I also want to visit the others if time allows in the future, the Boiling Crab always has tons of folks waiting and I must try it sometime. Also, down Main street a couple blocks is a Dim Sum, which are always fun. If you doing business the city hall and library are only in the next block down from Day's Inn, as is the court house etc. About 10 blocks down main, an easy walk is Enterprise Rent a Car and they are open for a short time on Sunday for convienient drop off.Also, I must throw one out there for Super Shuttle, a great dependable service for going to and from the airport, their drivers are very professional and helpful and have live GPS monitors to avoid traffic issues as they happen. The area is really growing and building up, the leaders of this town, appear to get it and seem to have good relationships with the locals and business community as a whole. Also, within half block, there are nice quiet historic neighborhoods that are safe to walk around in the evening. A beautiful area, nestled just below the beautiful San Gabriel Mountains.   More</t>
   </si>
   <si>
+    <t>401paulettep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r281488313-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1242,6 +1422,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Kathleen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r278838359-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1260,6 +1443,9 @@
     <t>Pluses: Rooms are well-equipped, including fridge and microwave. Rates are moderate. Location is just a few steps to good restaurants &amp; other businesses on Main St. in Alhambra.Minuses: Noise is a problem from a) nearby nightclub(s) with loud live music and b) Really loud, inconsiderate hotel guests who yell and scream in the wee hours (2 - 3 - 4 in the morning). Parking is tight -- there are about 32 rooms and only about half that number of parking spaces. Breakfast is so-so, though I was pleased that they had raisin bran cereal.Thus far I have stayed here 3 times (in the last 3 months or so) because of personal business and the location works very well for me. However, the downsides (such as noise) are wearing on me a bit.More</t>
   </si>
   <si>
+    <t>P9821VCjosea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r277382774-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1278,6 +1464,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Aston B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r277125210-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1293,6 +1482,9 @@
     <t>The shower didn't work and they couldn't fix the mechanism, it was noise, as it faces on a service alley for nightclubs and restaurants that are open until 2am. The furniture was falling apart and the door wouldn't stay open to move in or out. and the staff are very polite but can't seem to fix anything. The TV was big, but the remote control didn't work very well, so I would not recommend or stay at this address again, ever....</t>
   </si>
   <si>
+    <t>MICHAEL R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r274281734-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1305,6 +1497,9 @@
     <t xml:space="preserve">Clean rooms with a desk and free wi-fi located in downtown Alhambra. It is a small hotel with barely enough parking; but, with helpful attendants. Refrigerator in room for take home, if required. </t>
   </si>
   <si>
+    <t>394mrm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r273693020-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1320,6 +1515,9 @@
     <t>The second floor room we had sucks!We usually stay on the third floor with no issue.This room was above average warm,the bathroom smelled,and the neighbors every night were loud on both sides.</t>
   </si>
   <si>
+    <t>Alain U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r263668330-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1338,6 +1536,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Zbig2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r261802269-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1353,6 +1554,9 @@
     <t>I booked 4 nights at this hotel but I had to evacuate after 2 horrible sleepless nights not knowing what was going on. I thought it was afoot allergy until I discovered a nest of bed bugs....in my bed,see picture attached. Facility manager still charged me for one night of this nightmare</t>
   </si>
   <si>
+    <t>Miguel A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r260770812-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1368,6 +1572,9 @@
     <t>My stay in this hotel was great. It was clean, roomy, and had all the amenities necessary for a comfortable experience. I highly recommend it!</t>
   </si>
   <si>
+    <t>Anthony V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r256236483-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1386,6 +1593,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>925kristyl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r251508455-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1407,6 +1617,9 @@
     <t>I have to admit I was skeptical at first to stay here. I am a very hard person to please, period. But living in my area there are really all of 2 hotels close in proximity, and when my house had to under go some maintenance, we had no choice but to stay at a hotel for a few days. The office staff here could not have been more kind and friendly towards us and never once did we feel that we were not high priority customers. The rooms are all very nice, the beds completely comfortable. We have actually stayed several times since our house was finished just as a quick get away from the kids, and plan to continue to do so a few times a month.LOVE YOU GUYS!!!! More</t>
   </si>
   <si>
+    <t>rodneyb617</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r251176848-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1422,6 +1635,9 @@
     <t>They do not have enough parking for the rooms they have. I got a parking ticket parking where the had me park.</t>
   </si>
   <si>
+    <t>Alors</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r247660685-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1443,6 +1659,9 @@
     <t>This was a confusing property to evaluate. On one hand, it seemed like an old tired motel - and it did have some shortcomings. However, I have to admit that its location was convenient and the room was very clean. Another important aspecct of this property was that it was very quiet. I was bothered by 1/2" gap at the bottom of the door. All sorts of critters could fit through that space. The "blanket" felt like a thin sheet of foam. There was not a third sheet for the bed. The first morning we were there, I discovered that there was no hot water. There was not enough parking for the cars of all of the guests. Apparently, the water heater had failed. On New Year's Eve, the management gave us a bottle of champagne - very thoughtful. We stayed at this property because of the price. We were there to see the Rose Parade on New Year's Day. Hotels in the area (including this one) raise their rates dramatically. I was not willing to pay $500/night or more to stay in a higher end hotel (e.g., Marriott, Hilton, etc.). So, the big question is would I stay at this hotel again. Under the same circumstances - probably. Under normal pricing and availability for a room at upscale hotels, I would not. More</t>
   </si>
   <si>
+    <t>elizabetha723</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r246589813-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1456,6 +1675,9 @@
   </si>
   <si>
     <t>Exterior of property looked a little run-down, but once we got in the room, the room itself was well-apportioned and maintained.  It was small but clean, and the bed and pillows were very comfy.  Also, great water pressure in the shower and the water stayed ice and hot.  Walls a little thin so I could hear people outside in in other rooms.  Looked at breakfast but didn't partake as it was a little sparse.  Also, parking started out to be a problem as there were no spaces left, but the staff member manning the front desk was able to resolve this.</t>
+  </si>
+  <si>
+    <t>Michael S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r246250929-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
@@ -1480,6 +1702,9 @@
 I travel into the area for business almost weekly (and stay for one to five days) and the staff and owner have always been great. The breakfast area can be a little crowded and serves a "healthier" basic breakfast. They do keep coffee going on most days and the rooms do have microwaves and refrigerators. Utensils and plates are available in the...The owner has re-painted the buildings' exterior and remodeled the lobby/breakfast area. I have stayed here numerous times and the rooms are always clean and the staff very friendly. Located right in the business area of Alhambra it is only a block away from City Hall and a great County library. Good eats within walking distance and Starbucks on the corner just to the south. Tomomi for sushi and Japanese cuisine; Charlie's Trio for Italian, 38 degrees for American and 28 degrees (south side of main 1/2 block east) for great shrimp tacos plus a very busy (and good) Korean BBQ. A multiplex movie theater just one block east for easy entertainment plus some other eateries.Onsite parking can be tough if the hotel is fully booked as Alhambra does not allow overnight on-street parking, except by permit (available at the desk for free for guests or $5.00 at the Alhambra police station just south of City Hall.) The new parking structure across the street is open (free) for limited day and night parking but not overnight parking. I travel into the area for business almost weekly (and stay for one to five days) and the staff and owner have always been great. The breakfast area can be a little crowded and serves a "healthier" basic breakfast. They do keep coffee going on most days and the rooms do have microwaves and refrigerators. Utensils and plates are available in the lobby. Closest grocery store is Ralphs about 1/2 mile east on Main St. Rates are very reasonable for the area, too. Looking forward to the planned upgrade to the units interior décor. The wireless internet problems are now fixed (it was not an easy fix either for the provider) and are running at good speeds. Yeah! and Thanks!More</t>
   </si>
   <si>
+    <t>Cheryl D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r243785242-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1495,6 +1720,9 @@
     <t>Hotel staff was great!  Front check called to check on our arrival as we were running way later than anticipated.  Rooms were clean and quiet.  The only negative is that parking is at an extreme premium.</t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r237829009-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1513,6 +1741,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>deR288</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r235189400-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1528,6 +1759,9 @@
     <t>This is  an average hotel with a very courteous and friendly staff. I found the room to be very nice and very clean. The location is excellent and close to really good restaurants and easy access to shopping and the I-10 freeway. Has microwave, refrigerator, free Wi-fi,  Great desk for business travelers. They offer a very nice free continental breakfast. Elevator is a plus. The one negative is not much parking and the noise in the parking lot is very distracting when you are trying to sleep.</t>
   </si>
   <si>
+    <t>gamj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r233837313-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1546,6 +1780,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>William A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r230771392-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1561,6 +1798,9 @@
     <t>The room was comfortable and clean and the check-in was very easy! Staff is very courteous and everything was as it should be. Outstanding.</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r228191517-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1574,6 +1814,9 @@
   </si>
   <si>
     <t>More</t>
+  </si>
+  <si>
+    <t>Nigel S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r213962687-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
@@ -1605,6 +1848,9 @@
 Last but not least, I was in the lobby on my day of departure for continental breakfast (July 6). While eating breakfast, I overheard the front desk agent assisting someone with making a reservation over the phone. The phone call was on speaker, meaning that everyone who was in the lobby at this time could here this phone call. The...For starters, this is the only "chain" hotel in Alhambra. If my only experience with this establishment was my first (November 2013) I would not necessarily say that this was a bad thing, but my most recent experience has changed my mind.First, the good: check-in was painless, room was clean, and the air conditioning was cool. These things were appreciated.However, there were many experiences that made my experience unpleasurable. Of these, the first was the Wi-Fi. It was unusable, to say the least. After check-in, I began streaming some music on my mobile device via the provided Wi-Fi. Sometime on the subsequent day, the music stopped. Upon further investigation, my mobile data had been being used and was now capped at my limit. I checked the wireless connection and it was minimal and frequently disconnected, meaning that my phone was constantly switching to 4G, which is what capped my data.Next, I experienced banging sounds early in the morning (before 9AM). I later found out that these sounds were the housekeeping staff knocking their carts against the walls.Last but not least, I was in the lobby on my day of departure for continental breakfast (July 6). While eating breakfast, I overheard the front desk agent assisting someone with making a reservation over the phone. The phone call was on speaker, meaning that everyone who was in the lobby at this time could here this phone call. The unsuspecting person on the other end of the phone spoke his first and last name, full credit card number, and expiration date all within earshot of a lobby full of people. The reason that this shocked me was that I had made my reservation in the same fashion. Had someone overheard my information as well? The front desk agent had little disregard for the fact that this man's personal information was effectively being given to everyone in the room. "Gregory" (the man on the phone), I would like to apologize to you on behalf of this establishment for such blatant disregard for your personal information.Needless to say, it is highly unlikely that I will be returning to this hotel for a third time and will instead go out of my way to stay outside of Alhambra and drive in instead.More</t>
   </si>
   <si>
+    <t>Torres M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r206626869-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1623,6 +1869,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Kelsey W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r205907434-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1638,6 +1887,9 @@
     <t xml:space="preserve">The room was a single King size bed and it was clean, comfortable and quiet. I had no trouble checking in and one I was in my room I was content. My only complaint is that the towels were HARD. I felt like I was drying off with sandpaper! Next time, I'll bring my own. </t>
   </si>
   <si>
+    <t>David C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r196196900-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1650,6 +1902,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Nicholas S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r190498297-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1668,6 +1923,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Roger W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r188528649-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1686,6 +1944,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>newyearsbabySt_Louis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r180734050-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1713,6 +1974,9 @@
     <t>I chose this motel because of it's walkability to my parent's retirement home in Alhambra, CA. It is half a block from Main Street, a Starbucks on the corner. The property is in a small space with an inner courtyard forming the parking spaces. It is an older property but the rooms have been updated. "green" initiative noticeable by motion sensor lighting in vanity and bath area. Windows have newer plantation shutters so no dusty drapes. Not plush but clean.Typically however, the water saving concept for guests to reuse their towels was not implemented by housekeeping. I hang up towels carefully and they were replaced each day. I find this everywhere. Housekeeping probably lives by a different checklist than marketing.Staff very nice. I felt safe as a single older woman staying there. Typical free breakfast but had good fresh fruit (peaches each day). More</t>
   </si>
   <si>
+    <t>abc97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r180134416-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1731,6 +1995,9 @@
     <t>I  booked for 6 days first but stayed  for 15 days as my experience was excellent.  The rooms were very clean and really spacious and big.  Housekeeping staff was good.    I would really like to mention here about the  Manager Tejas  who went out of his way to help guests.  You couldapproach him with any information about Alhambra and he would guide you with preciseinformation.  If you have Manger like Tejas people will  come back to such hotels because I wouldThanks Tejas and all the bestCECILIA DSOUZA  MUMBAI  INDIAMore</t>
   </si>
   <si>
+    <t>Olga S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r173857281-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1758,6 +2025,9 @@
     <t>My room faced the street...very loud! The top on the toilet was too big and moved if you placed anything on it. AC did not cool during the night. Breakfast :(. I don't drink coffee or tea...there was no juice OR water!More</t>
   </si>
   <si>
+    <t>kaipika</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r167695231-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1785,6 +2055,9 @@
     <t>TJ at the front desk was very friendly, accommodating and considerate. The value and location is great!More</t>
   </si>
   <si>
+    <t>Valerie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r167053721-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1803,6 +2076,9 @@
     <t>Friendly staff, great location...the only thing is parking is very limited but there is street parking. Good neighborhoodMore</t>
   </si>
   <si>
+    <t>Thelma R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r166212735-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1824,6 +2100,9 @@
     <t>a very nice stay. It was easy to find. The rooms were very clean. The rooms did not smell. I would recommend this hotel to others. More</t>
   </si>
   <si>
+    <t>Sherry T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r164334055-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1842,6 +2121,9 @@
     <t>We arrived at the hotel on Monday afternoon and were kind of surprised by the look of the hotel, we parked in a space and walked in to check in. It was a very small lobby and it had a "security gate" inside the workers enter through. We were given room 201 right off the elevator, the room was substandard - the hotel didn't even look like the picture shown on the website. We were continually interrupted all night by people walking up and down the floor going to the elevator and back. The noise made my the housekeepers was annoyingly loud. I definitely would never return to this hotel. Not my cup of tea.More</t>
   </si>
   <si>
+    <t>Jason A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r163791633-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1860,6 +2142,9 @@
     <t>Front desk person was exceptionally friendly and courteous to our needs. Room was comfy and perfect and anything we needed was responded too promptly and quickly. Highly recommended!More</t>
   </si>
   <si>
+    <t>Telesforo G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r162143308-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1881,6 +2166,9 @@
     <t>It's a nice quaint hotel and the staff is very friendly. The rooms are clean, and better than most hotels. More</t>
   </si>
   <si>
+    <t>ladydame</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r159089725-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1932,6 +2220,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>WILFREDO A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r145698167-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1950,6 +2241,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>BARBARA B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r145421093-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1968,6 +2262,9 @@
     <t>I always worry about seeing mold in the shower, not only was the shower clean the whole room was. I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Carla5577</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r145116175-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -1983,6 +2280,9 @@
     <t>Had a very pleasant stay. I usually stay at another Day's inn location, but they had no rooms available, so I came here.To my delight the location was better as well as the room-price.There are several good restaurants and quite a number of stores within walking distance.The staff was very helpful, will definitive return here if I have to be in the area again.</t>
   </si>
   <si>
+    <t>Neil B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r139446948-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -2001,6 +2301,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Laquesha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r129557470-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -2019,6 +2322,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Catherine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r122528808-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -2037,6 +2343,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>pomimi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r94187623-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -2058,6 +2367,9 @@
     <t>I selected this hotel, because it was no more than 1/4 mile from  where my mother is staying in an assisted living facility.  This hotel is just off of Alhambra Main Street.  Several restaurants and night clubs are situated within about 100 feet from this hotel.  Check in was painless with the office behind a stout looking plexiglass barrier leaving the impression that this maybe in a high crime area.  The lobby is small and where the continental breakfast is offered.  The free breakfast is nothing special, but expected for the price we paid for the room.  The hotel is in a U shaped configuration and therefore open to the adjacent alley and Main Street festivities.  The room is dark with thin walls and ceilings.  The bed is OK and I did sleep well, even with the noise from Main Street, people walking upstairs and the TV from the room next door. If you plan on staying here, ask for a room on the 3rd floor and in the back corner.  That may reduce the noise even further.  The best parts of the stay are the hotel staff who are cordial and polite and the proximity of several interesting looking restaurants.  I ran into one young woman who was bringing back food from the Diner.  There is a refrigerator and microwave in the room if you have lefovers.  If you're into Starbucks, there is one on the corner no more...I selected this hotel, because it was no more than 1/4 mile from  where my mother is staying in an assisted living facility.  This hotel is just off of Alhambra Main Street.  Several restaurants and night clubs are situated within about 100 feet from this hotel.  Check in was painless with the office behind a stout looking plexiglass barrier leaving the impression that this maybe in a high crime area.  The lobby is small and where the continental breakfast is offered.  The free breakfast is nothing special, but expected for the price we paid for the room.  The hotel is in a U shaped configuration and therefore open to the adjacent alley and Main Street festivities.  The room is dark with thin walls and ceilings.  The bed is OK and I did sleep well, even with the noise from Main Street, people walking upstairs and the TV from the room next door. If you plan on staying here, ask for a room on the 3rd floor and in the back corner.  That may reduce the noise even further.  The best parts of the stay are the hotel staff who are cordial and polite and the proximity of several interesting looking restaurants.  I ran into one young woman who was bringing back food from the Diner.  There is a refrigerator and microwave in the room if you have lefovers.  If you're into Starbucks, there is one on the corner no more than 50 feet from the hotel. Make sure that you keep your car parked in their lot early, because it does overflow at night, probably due to people who are parking there to visit one of the night clubs.More</t>
   </si>
   <si>
+    <t>AtticusOne82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r83372234-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -2076,6 +2388,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>Antonia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r83178400-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -2091,6 +2406,9 @@
     <t>I was looking for a cheap option for a week long stay in LA and I found it in Alhambra. It's close enough to all the attractions you want to see but much cheaper than anything else I found. There are also great restaurants and a mall near by and there was some night life too! Of course, only stay there if you have a car.</t>
   </si>
   <si>
+    <t>summeroz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r22150096-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
   </si>
   <si>
@@ -2110,6 +2428,9 @@
   </si>
   <si>
     <t>The hotel is located right next door to a NIGHT CLUB which means that you can HEAR and FEEL, see the music in your room until almost 2 AM!  you can hear all noise that happens on the main street.  A car alarm from across the street that had a whole building between the hotel and it could be heard crystal clear in the hotel room. The rooms are not very clean.  Our bed had a HUGE book size BLOOD stain in it.  yes I did write blood.  No I am not kidding.  Yes we were given another room "but if that room didn't meet our standards" they only had one other room for us (direct quote).  I am not sure who else in the world wouldn't mind sleeping on a blood stain.  Anyone?Yes it is in a great area but NOT worth it.  pay a little more to stay somewhere cleaner, quieter and nicer.  TRUST ME.More</t>
+  </si>
+  <si>
+    <t>tamlym</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29078-d75479-r4728205-Days_Inn_by_Wyndham_Alhambra_CA-Alhambra_California.html</t>
@@ -2629,43 +2950,47 @@
       <c r="A2" t="n">
         <v>28270</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>43735</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2685,50 +3010,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>28270</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>135512</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2742,50 +3071,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>28270</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>135513</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2805,50 +3138,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>28270</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2872,50 +3209,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>28270</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>135514</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2939,50 +3280,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>28270</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>135515</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2996,35 +3341,39 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>28270</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>135516</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3032,10 +3381,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3056,51 +3405,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>28270</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>135517</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
         <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" t="s">
-        <v>84</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3124,50 +3474,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>28270</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>135518</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3191,50 +3545,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>28270</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>135519</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3258,50 +3616,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>28270</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>135520</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
         <v>109</v>
-      </c>
-      <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>106</v>
-      </c>
-      <c r="O12" t="s">
-        <v>100</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3319,50 +3681,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>28270</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>5902</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3386,50 +3752,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>28270</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>135521</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3453,50 +3823,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>28270</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>135522</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3514,50 +3888,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>28270</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>135523</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3581,50 +3959,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>28270</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>30942</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3648,50 +4030,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>28270</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>135524</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>144</v>
       </c>
-      <c r="J18" t="s">
-        <v>145</v>
-      </c>
-      <c r="K18" t="s">
-        <v>146</v>
-      </c>
-      <c r="L18" t="s">
-        <v>147</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>130</v>
-      </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3715,50 +4101,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>28270</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>135525</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3782,50 +4172,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>28270</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>89892</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3839,50 +4233,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>28270</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>135526</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3900,50 +4298,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>28270</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>135527</v>
+      </c>
+      <c r="C22" t="s">
+        <v>184</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3963,50 +4365,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>28270</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>135528</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4026,50 +4432,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>28270</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>135529</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4093,50 +4503,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>28270</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>135530</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4154,50 +4568,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28270</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>135531</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4221,50 +4639,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>28270</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>135532</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4288,50 +4710,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>28270</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>135533</v>
+      </c>
+      <c r="C28" t="s">
+        <v>224</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4355,50 +4781,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28270</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>135534</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4422,50 +4852,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28270</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>135535</v>
+      </c>
+      <c r="C30" t="s">
+        <v>238</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J30" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4483,56 +4917,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="X30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28270</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>135536</v>
+      </c>
+      <c r="C31" t="s">
+        <v>246</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="J31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4556,50 +4994,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>28270</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>135537</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="O32" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4623,50 +5065,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>28270</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>135538</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="J33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4690,50 +5136,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>28270</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>135539</v>
+      </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="J34" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4757,50 +5207,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>28270</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>135540</v>
+      </c>
+      <c r="C35" t="s">
+        <v>272</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="J35" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="O35" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4824,50 +5278,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>28270</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>135541</v>
+      </c>
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="J36" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4891,50 +5349,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>28270</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>135542</v>
+      </c>
+      <c r="C37" t="s">
+        <v>286</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="J37" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4958,50 +5420,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>28270</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>135543</v>
+      </c>
+      <c r="C38" t="s">
+        <v>291</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="J38" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="K38" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5019,50 +5485,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>28270</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>17187</v>
+      </c>
+      <c r="C39" t="s">
+        <v>299</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="K39" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5082,50 +5552,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>28270</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>135544</v>
+      </c>
+      <c r="C40" t="s">
+        <v>306</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="O40" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -5147,50 +5621,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>28270</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>135545</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="J41" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5214,50 +5692,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>28270</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>135546</v>
+      </c>
+      <c r="C42" t="s">
+        <v>320</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="J42" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="O42" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5281,50 +5763,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>28270</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>98328</v>
+      </c>
+      <c r="C43" t="s">
+        <v>327</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="J43" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="K43" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5348,50 +5834,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>28270</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>135547</v>
+      </c>
+      <c r="C44" t="s">
+        <v>333</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="J44" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="K44" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="L44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="O44" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5415,50 +5905,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>28270</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>135548</v>
+      </c>
+      <c r="C45" t="s">
+        <v>341</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="J45" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="K45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5482,50 +5976,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>28270</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>135549</v>
+      </c>
+      <c r="C46" t="s">
+        <v>347</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="J46" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5549,50 +6047,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>28270</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>135550</v>
+      </c>
+      <c r="C47" t="s">
+        <v>354</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="J47" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="K47" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="O47" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5606,50 +6108,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>28270</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>135551</v>
+      </c>
+      <c r="C48" t="s">
+        <v>360</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="J48" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="O48" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5673,50 +6179,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>28270</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>9027</v>
+      </c>
+      <c r="C49" t="s">
+        <v>367</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="J49" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="K49" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="O49" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5734,50 +6244,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>28270</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>114940</v>
+      </c>
+      <c r="C50" t="s">
+        <v>374</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="J50" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="O50" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P50" t="n">
         <v>2</v>
@@ -5801,50 +6315,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>28270</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>8300</v>
+      </c>
+      <c r="C51" t="s">
+        <v>380</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="J51" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="K51" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5868,50 +6386,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>28270</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>135552</v>
+      </c>
+      <c r="C52" t="s">
+        <v>387</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="J52" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="O52" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5935,50 +6457,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>28270</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="J53" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="K53" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="L53" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5992,50 +6518,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>28270</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>135553</v>
+      </c>
+      <c r="C54" t="s">
+        <v>399</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="J54" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="K54" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="O54" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6049,50 +6579,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>28270</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>135554</v>
+      </c>
+      <c r="C55" t="s">
+        <v>405</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="J55" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="K55" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6108,50 +6642,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>28270</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>135555</v>
+      </c>
+      <c r="C56" t="s">
+        <v>411</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="J56" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="K56" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="O56" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6175,50 +6713,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>28270</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>23529</v>
+      </c>
+      <c r="C57" t="s">
+        <v>418</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="J57" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="K57" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6238,50 +6780,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>28270</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>135556</v>
+      </c>
+      <c r="C58" t="s">
+        <v>424</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="J58" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="K58" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="L58" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="O58" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6305,50 +6851,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>28270</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>135557</v>
+      </c>
+      <c r="C59" t="s">
+        <v>430</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="J59" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
       <c r="K59" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="O59" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6372,50 +6922,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>28270</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>135558</v>
+      </c>
+      <c r="C60" t="s">
+        <v>437</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="J60" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="K60" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="O60" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6439,50 +6993,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>28270</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>135559</v>
+      </c>
+      <c r="C61" t="s">
+        <v>443</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="J61" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="K61" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="L61" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="O61" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6506,50 +7064,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>28270</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>135560</v>
+      </c>
+      <c r="C62" t="s">
+        <v>451</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="J62" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="K62" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="L62" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6573,50 +7135,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>28270</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C63" t="s">
+        <v>458</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
       <c r="J63" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="K63" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="L63" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6640,50 +7206,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>28270</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>135561</v>
+      </c>
+      <c r="C64" t="s">
+        <v>465</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="J64" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="K64" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="L64" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="O64" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6707,50 +7277,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>28270</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>135562</v>
+      </c>
+      <c r="C65" t="s">
+        <v>472</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="J65" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="K65" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="L65" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="O65" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6774,50 +7348,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>28270</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>135563</v>
+      </c>
+      <c r="C66" t="s">
+        <v>478</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="J66" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="K66" t="s">
         <v>12</v>
       </c>
       <c r="L66" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="O66" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6841,50 +7419,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>28270</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>135564</v>
+      </c>
+      <c r="C67" t="s">
+        <v>483</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="J67" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="K67" t="s">
-        <v>422</v>
+        <v>487</v>
       </c>
       <c r="L67" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="O67" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6908,50 +7490,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>28270</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>135565</v>
+      </c>
+      <c r="C68" t="s">
+        <v>489</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="J68" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="K68" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="L68" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="O68" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6975,50 +7561,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>28270</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>135566</v>
+      </c>
+      <c r="C69" t="s">
+        <v>496</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="J69" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="K69" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="L69" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="O69" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7038,50 +7628,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>28270</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>20303</v>
+      </c>
+      <c r="C70" t="s">
+        <v>502</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>435</v>
+        <v>503</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>436</v>
+        <v>504</v>
       </c>
       <c r="J70" t="s">
-        <v>437</v>
+        <v>505</v>
       </c>
       <c r="K70" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="L70" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="O70" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7105,50 +7699,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>28270</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>101715</v>
+      </c>
+      <c r="C71" t="s">
+        <v>508</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>441</v>
+        <v>510</v>
       </c>
       <c r="J71" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="K71" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="L71" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -7172,50 +7770,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>28270</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>135567</v>
+      </c>
+      <c r="C72" t="s">
+        <v>515</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>446</v>
+        <v>516</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="J72" t="s">
-        <v>448</v>
+        <v>518</v>
       </c>
       <c r="K72" t="s">
-        <v>449</v>
+        <v>519</v>
       </c>
       <c r="L72" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>451</v>
+        <v>521</v>
       </c>
       <c r="O72" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7239,50 +7841,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>28270</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>135568</v>
+      </c>
+      <c r="C73" t="s">
+        <v>523</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>454</v>
+        <v>525</v>
       </c>
       <c r="J73" t="s">
-        <v>455</v>
+        <v>526</v>
       </c>
       <c r="K73" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="L73" t="s">
-        <v>457</v>
+        <v>528</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>451</v>
+        <v>521</v>
       </c>
       <c r="O73" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -7306,50 +7912,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>457</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>28270</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>135569</v>
+      </c>
+      <c r="C74" t="s">
+        <v>529</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>458</v>
+        <v>530</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="J74" t="s">
-        <v>460</v>
+        <v>532</v>
       </c>
       <c r="K74" t="s">
-        <v>461</v>
+        <v>533</v>
       </c>
       <c r="L74" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="O74" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7373,50 +7983,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>464</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>28270</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>135570</v>
+      </c>
+      <c r="C75" t="s">
+        <v>537</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>465</v>
+        <v>538</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>466</v>
+        <v>539</v>
       </c>
       <c r="J75" t="s">
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="K75" t="s">
-        <v>468</v>
+        <v>541</v>
       </c>
       <c r="L75" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="O75" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7440,50 +8054,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>28270</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>543</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="J76" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="K76" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="L76" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="O76" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7507,50 +8125,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>475</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>28270</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>17711</v>
+      </c>
+      <c r="C77" t="s">
+        <v>550</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="J77" t="s">
-        <v>478</v>
+        <v>553</v>
       </c>
       <c r="K77" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
       <c r="L77" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7574,50 +8196,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>28270</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>450</v>
+      </c>
+      <c r="C78" t="s">
+        <v>556</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>482</v>
+        <v>558</v>
       </c>
       <c r="J78" t="s">
-        <v>483</v>
+        <v>559</v>
       </c>
       <c r="K78" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="L78" t="s">
-        <v>485</v>
+        <v>561</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="O78" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7637,50 +8263,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>485</v>
+        <v>561</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>28270</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>135571</v>
+      </c>
+      <c r="C79" t="s">
+        <v>563</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>487</v>
+        <v>564</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>488</v>
+        <v>565</v>
       </c>
       <c r="J79" t="s">
-        <v>489</v>
+        <v>566</v>
       </c>
       <c r="K79" t="s">
-        <v>490</v>
+        <v>567</v>
       </c>
       <c r="L79" t="s">
-        <v>491</v>
+        <v>568</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="O79" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7698,50 +8328,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>491</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>28270</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>135572</v>
+      </c>
+      <c r="C80" t="s">
+        <v>569</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="J80" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="K80" t="s">
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="L80" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="O80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7765,50 +8399,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>28270</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>13324</v>
+      </c>
+      <c r="C81" t="s">
+        <v>576</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>498</v>
+        <v>577</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>499</v>
+        <v>578</v>
       </c>
       <c r="J81" t="s">
-        <v>500</v>
+        <v>579</v>
       </c>
       <c r="K81" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="L81" t="s">
-        <v>502</v>
+        <v>581</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7832,48 +8470,52 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>502</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>28270</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C82" t="s">
+        <v>582</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>503</v>
+        <v>583</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="J82" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="O82" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7897,50 +8539,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>507</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>28270</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>92428</v>
+      </c>
+      <c r="C83" t="s">
+        <v>588</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>508</v>
+        <v>589</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>509</v>
+        <v>590</v>
       </c>
       <c r="J83" t="s">
-        <v>510</v>
+        <v>591</v>
       </c>
       <c r="K83" t="s">
-        <v>511</v>
+        <v>592</v>
       </c>
       <c r="L83" t="s">
-        <v>512</v>
+        <v>593</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>513</v>
+        <v>594</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -7954,50 +8600,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>514</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>28270</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>135573</v>
+      </c>
+      <c r="C84" t="s">
+        <v>596</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>515</v>
+        <v>597</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>516</v>
+        <v>598</v>
       </c>
       <c r="J84" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
       <c r="K84" t="s">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="L84" t="s">
-        <v>519</v>
+        <v>601</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="O84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8019,50 +8669,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>519</v>
+        <v>601</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>28270</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>58989</v>
+      </c>
+      <c r="C85" t="s">
+        <v>603</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>521</v>
+        <v>604</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>522</v>
+        <v>605</v>
       </c>
       <c r="J85" t="s">
-        <v>523</v>
+        <v>606</v>
       </c>
       <c r="K85" t="s">
-        <v>524</v>
+        <v>607</v>
       </c>
       <c r="L85" t="s">
-        <v>525</v>
+        <v>608</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="O85" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8086,48 +8740,52 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>525</v>
+        <v>608</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>28270</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>520</v>
+      </c>
+      <c r="C86" t="s">
+        <v>609</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>526</v>
+        <v>610</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>527</v>
+        <v>611</v>
       </c>
       <c r="J86" t="s">
-        <v>528</v>
+        <v>612</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="M86" t="n">
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>529</v>
+        <v>613</v>
       </c>
       <c r="O86" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -8151,50 +8809,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>507</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>28270</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>86390</v>
+      </c>
+      <c r="C87" t="s">
+        <v>614</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>530</v>
+        <v>615</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>531</v>
+        <v>616</v>
       </c>
       <c r="J87" t="s">
-        <v>532</v>
+        <v>617</v>
       </c>
       <c r="K87" t="s">
-        <v>533</v>
+        <v>618</v>
       </c>
       <c r="L87" t="s">
-        <v>534</v>
+        <v>619</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>535</v>
+        <v>620</v>
       </c>
       <c r="O87" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8218,50 +8880,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>534</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>28270</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>5595</v>
+      </c>
+      <c r="C88" t="s">
+        <v>621</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>536</v>
+        <v>622</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>537</v>
+        <v>623</v>
       </c>
       <c r="J88" t="s">
-        <v>538</v>
+        <v>624</v>
       </c>
       <c r="K88" t="s">
-        <v>539</v>
+        <v>625</v>
       </c>
       <c r="L88" t="s">
-        <v>540</v>
+        <v>626</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>541</v>
+        <v>627</v>
       </c>
       <c r="O88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P88" t="n">
         <v>2</v>
@@ -8285,50 +8951,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>540</v>
+        <v>626</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>28270</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>135574</v>
+      </c>
+      <c r="C89" t="s">
+        <v>628</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>542</v>
+        <v>629</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>543</v>
+        <v>630</v>
       </c>
       <c r="J89" t="s">
-        <v>544</v>
+        <v>631</v>
       </c>
       <c r="K89" t="s">
-        <v>545</v>
+        <v>632</v>
       </c>
       <c r="L89" t="s">
-        <v>546</v>
+        <v>633</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>547</v>
+        <v>634</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8350,56 +9020,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>548</v>
+        <v>635</v>
       </c>
       <c r="X89" t="s">
-        <v>549</v>
+        <v>636</v>
       </c>
       <c r="Y89" t="s">
-        <v>550</v>
+        <v>637</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>28270</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>135575</v>
+      </c>
+      <c r="C90" t="s">
+        <v>638</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>551</v>
+        <v>639</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>552</v>
+        <v>640</v>
       </c>
       <c r="J90" t="s">
-        <v>553</v>
+        <v>641</v>
       </c>
       <c r="K90" t="s">
-        <v>554</v>
+        <v>642</v>
       </c>
       <c r="L90" t="s">
-        <v>555</v>
+        <v>643</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>547</v>
+        <v>634</v>
       </c>
       <c r="O90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8421,56 +9095,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>548</v>
+        <v>635</v>
       </c>
       <c r="X90" t="s">
-        <v>549</v>
+        <v>636</v>
       </c>
       <c r="Y90" t="s">
-        <v>556</v>
+        <v>644</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>28270</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>31336</v>
+      </c>
+      <c r="C91" t="s">
+        <v>645</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>557</v>
+        <v>646</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>558</v>
+        <v>647</v>
       </c>
       <c r="J91" t="s">
-        <v>559</v>
+        <v>648</v>
       </c>
       <c r="K91" t="s">
-        <v>560</v>
+        <v>649</v>
       </c>
       <c r="L91" t="s">
-        <v>561</v>
+        <v>650</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>562</v>
+        <v>651</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8492,56 +9170,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>563</v>
+        <v>652</v>
       </c>
       <c r="X91" t="s">
-        <v>564</v>
+        <v>653</v>
       </c>
       <c r="Y91" t="s">
-        <v>565</v>
+        <v>654</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>28270</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>135576</v>
+      </c>
+      <c r="C92" t="s">
+        <v>655</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>566</v>
+        <v>656</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>567</v>
+        <v>657</v>
       </c>
       <c r="J92" t="s">
-        <v>568</v>
+        <v>658</v>
       </c>
       <c r="K92" t="s">
-        <v>569</v>
+        <v>659</v>
       </c>
       <c r="L92" t="s">
-        <v>570</v>
+        <v>660</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>571</v>
+        <v>661</v>
       </c>
       <c r="O92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8563,56 +9245,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="X92" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="Y92" t="s">
-        <v>574</v>
+        <v>664</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>28270</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>11831</v>
+      </c>
+      <c r="C93" t="s">
+        <v>665</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>575</v>
+        <v>666</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>576</v>
+        <v>667</v>
       </c>
       <c r="J93" t="s">
-        <v>577</v>
+        <v>668</v>
       </c>
       <c r="K93" t="s">
-        <v>578</v>
+        <v>669</v>
       </c>
       <c r="L93" t="s">
-        <v>579</v>
+        <v>670</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>571</v>
+        <v>661</v>
       </c>
       <c r="O93" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8634,56 +9320,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="X93" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="Y93" t="s">
-        <v>580</v>
+        <v>671</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>28270</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>135577</v>
+      </c>
+      <c r="C94" t="s">
+        <v>672</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>581</v>
+        <v>673</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>582</v>
+        <v>674</v>
       </c>
       <c r="J94" t="s">
-        <v>583</v>
+        <v>675</v>
       </c>
       <c r="K94" t="s">
-        <v>584</v>
+        <v>676</v>
       </c>
       <c r="L94" t="s">
-        <v>585</v>
+        <v>677</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>586</v>
+        <v>678</v>
       </c>
       <c r="O94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8705,56 +9395,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="X94" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="Y94" t="s">
-        <v>587</v>
+        <v>679</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>28270</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>84834</v>
+      </c>
+      <c r="C95" t="s">
+        <v>680</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>588</v>
+        <v>681</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>589</v>
+        <v>682</v>
       </c>
       <c r="J95" t="s">
-        <v>590</v>
+        <v>683</v>
       </c>
       <c r="K95" t="s">
-        <v>591</v>
+        <v>684</v>
       </c>
       <c r="L95" t="s">
-        <v>592</v>
+        <v>685</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>586</v>
+        <v>678</v>
       </c>
       <c r="O95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -8778,50 +9472,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>593</v>
+        <v>686</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>28270</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>5576</v>
+      </c>
+      <c r="C96" t="s">
+        <v>687</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>594</v>
+        <v>688</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>595</v>
+        <v>689</v>
       </c>
       <c r="J96" t="s">
-        <v>596</v>
+        <v>690</v>
       </c>
       <c r="K96" t="s">
-        <v>597</v>
+        <v>691</v>
       </c>
       <c r="L96" t="s">
-        <v>598</v>
+        <v>692</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>586</v>
+        <v>678</v>
       </c>
       <c r="O96" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8843,56 +9541,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="X96" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="Y96" t="s">
-        <v>599</v>
+        <v>693</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>28270</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>135578</v>
+      </c>
+      <c r="C97" t="s">
+        <v>694</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>600</v>
+        <v>695</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>601</v>
+        <v>696</v>
       </c>
       <c r="J97" t="s">
-        <v>602</v>
+        <v>697</v>
       </c>
       <c r="K97" t="s">
-        <v>603</v>
+        <v>698</v>
       </c>
       <c r="L97" t="s">
-        <v>604</v>
+        <v>699</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>605</v>
+        <v>700</v>
       </c>
       <c r="O97" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -8914,56 +9616,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="X97" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="Y97" t="s">
-        <v>606</v>
+        <v>701</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>28270</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>135579</v>
+      </c>
+      <c r="C98" t="s">
+        <v>702</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>607</v>
+        <v>703</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>608</v>
+        <v>704</v>
       </c>
       <c r="J98" t="s">
-        <v>609</v>
+        <v>705</v>
       </c>
       <c r="K98" t="s">
-        <v>610</v>
+        <v>706</v>
       </c>
       <c r="L98" t="s">
-        <v>611</v>
+        <v>707</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>612</v>
+        <v>708</v>
       </c>
       <c r="O98" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -8985,56 +9691,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="X98" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="Y98" t="s">
-        <v>613</v>
+        <v>709</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>28270</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C99" t="s">
+        <v>582</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>614</v>
+        <v>710</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>615</v>
+        <v>711</v>
       </c>
       <c r="J99" t="s">
-        <v>616</v>
+        <v>712</v>
       </c>
       <c r="K99" t="s">
-        <v>617</v>
+        <v>713</v>
       </c>
       <c r="L99" t="s">
-        <v>618</v>
+        <v>714</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>619</v>
+        <v>715</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9056,48 +9766,52 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>618</v>
+        <v>714</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>28270</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>11831</v>
+      </c>
+      <c r="C100" t="s">
+        <v>665</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>620</v>
+        <v>716</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>621</v>
+        <v>717</v>
       </c>
       <c r="J100" t="s">
-        <v>622</v>
+        <v>718</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>623</v>
+        <v>719</v>
       </c>
       <c r="O100" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9119,56 +9833,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="X100" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="Y100" t="s">
-        <v>507</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>28270</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>135580</v>
+      </c>
+      <c r="C101" t="s">
+        <v>720</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>624</v>
+        <v>721</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>625</v>
+        <v>722</v>
       </c>
       <c r="J101" t="s">
-        <v>626</v>
+        <v>723</v>
       </c>
       <c r="K101" t="s">
-        <v>627</v>
+        <v>724</v>
       </c>
       <c r="L101" t="s">
-        <v>628</v>
+        <v>725</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>629</v>
+        <v>726</v>
       </c>
       <c r="O101" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9192,50 +9910,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>628</v>
+        <v>725</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>28270</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>33022</v>
+      </c>
+      <c r="C102" t="s">
+        <v>727</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>630</v>
+        <v>728</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>631</v>
+        <v>729</v>
       </c>
       <c r="J102" t="s">
-        <v>632</v>
+        <v>730</v>
       </c>
       <c r="K102" t="s">
-        <v>633</v>
+        <v>731</v>
       </c>
       <c r="L102" t="s">
-        <v>634</v>
+        <v>732</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>629</v>
+        <v>726</v>
       </c>
       <c r="O102" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9255,56 +9977,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="X102" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="Y102" t="s">
-        <v>635</v>
+        <v>733</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>28270</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>135581</v>
+      </c>
+      <c r="C103" t="s">
+        <v>734</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>636</v>
+        <v>735</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>637</v>
+        <v>736</v>
       </c>
       <c r="J103" t="s">
-        <v>638</v>
+        <v>737</v>
       </c>
       <c r="K103" t="s">
-        <v>639</v>
+        <v>738</v>
       </c>
       <c r="L103" t="s">
-        <v>640</v>
+        <v>739</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>629</v>
+        <v>726</v>
       </c>
       <c r="O103" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9328,50 +10054,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>640</v>
+        <v>739</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>28270</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>86657</v>
+      </c>
+      <c r="C104" t="s">
+        <v>740</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>641</v>
+        <v>741</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>642</v>
+        <v>742</v>
       </c>
       <c r="J104" t="s">
-        <v>643</v>
+        <v>743</v>
       </c>
       <c r="K104" t="s">
-        <v>644</v>
+        <v>744</v>
       </c>
       <c r="L104" t="s">
-        <v>645</v>
+        <v>745</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>646</v>
+        <v>746</v>
       </c>
       <c r="O104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9395,50 +10125,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>645</v>
+        <v>745</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>28270</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>135582</v>
+      </c>
+      <c r="C105" t="s">
+        <v>747</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>647</v>
+        <v>748</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>648</v>
+        <v>749</v>
       </c>
       <c r="J105" t="s">
-        <v>649</v>
+        <v>750</v>
       </c>
       <c r="K105" t="s">
-        <v>650</v>
+        <v>751</v>
       </c>
       <c r="L105" t="s">
-        <v>651</v>
+        <v>752</v>
       </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>652</v>
+        <v>753</v>
       </c>
       <c r="O105" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="P105" t="n">
         <v>2</v>
@@ -9462,50 +10196,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>651</v>
+        <v>752</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>28270</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>59315</v>
+      </c>
+      <c r="C106" t="s">
+        <v>754</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>653</v>
+        <v>755</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>654</v>
+        <v>756</v>
       </c>
       <c r="J106" t="s">
-        <v>655</v>
+        <v>757</v>
       </c>
       <c r="K106" t="s">
-        <v>656</v>
+        <v>758</v>
       </c>
       <c r="L106" t="s">
-        <v>657</v>
+        <v>759</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>658</v>
+        <v>760</v>
       </c>
       <c r="O106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9529,50 +10267,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>657</v>
+        <v>759</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>28270</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>135583</v>
+      </c>
+      <c r="C107" t="s">
+        <v>761</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>659</v>
+        <v>762</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>660</v>
+        <v>763</v>
       </c>
       <c r="J107" t="s">
-        <v>661</v>
+        <v>764</v>
       </c>
       <c r="K107" t="s">
-        <v>662</v>
+        <v>765</v>
       </c>
       <c r="L107" t="s">
-        <v>663</v>
+        <v>766</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>664</v>
+        <v>767</v>
       </c>
       <c r="O107" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P107" t="n">
         <v>3</v>
@@ -9596,50 +10338,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>665</v>
+        <v>768</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>28270</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>135584</v>
+      </c>
+      <c r="C108" t="s">
+        <v>769</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>666</v>
+        <v>770</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>667</v>
+        <v>771</v>
       </c>
       <c r="J108" t="s">
-        <v>668</v>
+        <v>772</v>
       </c>
       <c r="K108" t="s">
-        <v>669</v>
+        <v>773</v>
       </c>
       <c r="L108" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>671</v>
+        <v>775</v>
       </c>
       <c r="O108" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9663,41 +10409,45 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>28270</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>135585</v>
+      </c>
+      <c r="C109" t="s">
+        <v>776</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>672</v>
+        <v>777</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>673</v>
+        <v>778</v>
       </c>
       <c r="J109" t="s">
-        <v>674</v>
+        <v>779</v>
       </c>
       <c r="K109" t="s">
-        <v>675</v>
+        <v>780</v>
       </c>
       <c r="L109" t="s">
-        <v>676</v>
+        <v>781</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
@@ -9726,50 +10476,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>676</v>
+        <v>781</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>28270</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>135586</v>
+      </c>
+      <c r="C110" t="s">
+        <v>782</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>677</v>
+        <v>783</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>678</v>
+        <v>784</v>
       </c>
       <c r="J110" t="s">
-        <v>679</v>
+        <v>785</v>
       </c>
       <c r="K110" t="s">
-        <v>680</v>
+        <v>786</v>
       </c>
       <c r="L110" t="s">
-        <v>681</v>
+        <v>787</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>682</v>
+        <v>788</v>
       </c>
       <c r="O110" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -9793,41 +10547,45 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>683</v>
+        <v>789</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>28270</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>135587</v>
+      </c>
+      <c r="C111" t="s">
+        <v>790</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>684</v>
+        <v>791</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>685</v>
+        <v>792</v>
       </c>
       <c r="J111" t="s">
-        <v>686</v>
+        <v>793</v>
       </c>
       <c r="K111" t="s">
-        <v>687</v>
+        <v>794</v>
       </c>
       <c r="L111" t="s">
-        <v>688</v>
+        <v>795</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
@@ -9854,7 +10612,7 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>688</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_195.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_195.xlsx
@@ -3018,7 +3018,7 @@
         <v>28270</v>
       </c>
       <c r="B3" t="n">
-        <v>135512</v>
+        <v>166431</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -3079,7 +3079,7 @@
         <v>28270</v>
       </c>
       <c r="B4" t="n">
-        <v>135513</v>
+        <v>166432</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -3217,7 +3217,7 @@
         <v>28270</v>
       </c>
       <c r="B6" t="n">
-        <v>135514</v>
+        <v>166433</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -3288,7 +3288,7 @@
         <v>28270</v>
       </c>
       <c r="B7" t="n">
-        <v>135515</v>
+        <v>166434</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -3349,7 +3349,7 @@
         <v>28270</v>
       </c>
       <c r="B8" t="n">
-        <v>135516</v>
+        <v>166435</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -3411,7 +3411,7 @@
         <v>28270</v>
       </c>
       <c r="B9" t="n">
-        <v>135517</v>
+        <v>166436</v>
       </c>
       <c r="C9" t="s">
         <v>96</v>
@@ -3482,7 +3482,7 @@
         <v>28270</v>
       </c>
       <c r="B10" t="n">
-        <v>135518</v>
+        <v>166437</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
@@ -3553,7 +3553,7 @@
         <v>28270</v>
       </c>
       <c r="B11" t="n">
-        <v>135519</v>
+        <v>166438</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -3624,7 +3624,7 @@
         <v>28270</v>
       </c>
       <c r="B12" t="n">
-        <v>135520</v>
+        <v>166439</v>
       </c>
       <c r="C12" t="s">
         <v>118</v>
@@ -3760,7 +3760,7 @@
         <v>28270</v>
       </c>
       <c r="B14" t="n">
-        <v>135521</v>
+        <v>166440</v>
       </c>
       <c r="C14" t="s">
         <v>131</v>
@@ -3831,7 +3831,7 @@
         <v>28270</v>
       </c>
       <c r="B15" t="n">
-        <v>135522</v>
+        <v>166441</v>
       </c>
       <c r="C15" t="s">
         <v>138</v>
@@ -3896,7 +3896,7 @@
         <v>28270</v>
       </c>
       <c r="B16" t="n">
-        <v>135523</v>
+        <v>166442</v>
       </c>
       <c r="C16" t="s">
         <v>146</v>
@@ -4038,7 +4038,7 @@
         <v>28270</v>
       </c>
       <c r="B18" t="n">
-        <v>135524</v>
+        <v>166443</v>
       </c>
       <c r="C18" t="s">
         <v>159</v>
@@ -4109,7 +4109,7 @@
         <v>28270</v>
       </c>
       <c r="B19" t="n">
-        <v>135525</v>
+        <v>166444</v>
       </c>
       <c r="C19" t="s">
         <v>165</v>
@@ -4241,7 +4241,7 @@
         <v>28270</v>
       </c>
       <c r="B21" t="n">
-        <v>135526</v>
+        <v>166445</v>
       </c>
       <c r="C21" t="s">
         <v>178</v>
@@ -4306,7 +4306,7 @@
         <v>28270</v>
       </c>
       <c r="B22" t="n">
-        <v>135527</v>
+        <v>166446</v>
       </c>
       <c r="C22" t="s">
         <v>184</v>
@@ -4373,7 +4373,7 @@
         <v>28270</v>
       </c>
       <c r="B23" t="n">
-        <v>135528</v>
+        <v>166447</v>
       </c>
       <c r="C23" t="s">
         <v>192</v>
@@ -4440,7 +4440,7 @@
         <v>28270</v>
       </c>
       <c r="B24" t="n">
-        <v>135529</v>
+        <v>166448</v>
       </c>
       <c r="C24" t="s">
         <v>198</v>
@@ -4511,7 +4511,7 @@
         <v>28270</v>
       </c>
       <c r="B25" t="n">
-        <v>135530</v>
+        <v>166449</v>
       </c>
       <c r="C25" t="s">
         <v>204</v>
@@ -4576,7 +4576,7 @@
         <v>28270</v>
       </c>
       <c r="B26" t="n">
-        <v>135531</v>
+        <v>166450</v>
       </c>
       <c r="C26" t="s">
         <v>211</v>
@@ -4647,7 +4647,7 @@
         <v>28270</v>
       </c>
       <c r="B27" t="n">
-        <v>135532</v>
+        <v>166451</v>
       </c>
       <c r="C27" t="s">
         <v>218</v>
@@ -4718,7 +4718,7 @@
         <v>28270</v>
       </c>
       <c r="B28" t="n">
-        <v>135533</v>
+        <v>166452</v>
       </c>
       <c r="C28" t="s">
         <v>224</v>
@@ -4789,7 +4789,7 @@
         <v>28270</v>
       </c>
       <c r="B29" t="n">
-        <v>135534</v>
+        <v>166453</v>
       </c>
       <c r="C29" t="s">
         <v>232</v>
@@ -4860,7 +4860,7 @@
         <v>28270</v>
       </c>
       <c r="B30" t="n">
-        <v>135535</v>
+        <v>166454</v>
       </c>
       <c r="C30" t="s">
         <v>238</v>
@@ -4931,7 +4931,7 @@
         <v>28270</v>
       </c>
       <c r="B31" t="n">
-        <v>135536</v>
+        <v>166455</v>
       </c>
       <c r="C31" t="s">
         <v>246</v>
@@ -5002,7 +5002,7 @@
         <v>28270</v>
       </c>
       <c r="B32" t="n">
-        <v>135537</v>
+        <v>166456</v>
       </c>
       <c r="C32" t="s">
         <v>252</v>
@@ -5073,7 +5073,7 @@
         <v>28270</v>
       </c>
       <c r="B33" t="n">
-        <v>135538</v>
+        <v>166457</v>
       </c>
       <c r="C33" t="s">
         <v>259</v>
@@ -5144,7 +5144,7 @@
         <v>28270</v>
       </c>
       <c r="B34" t="n">
-        <v>135539</v>
+        <v>166458</v>
       </c>
       <c r="C34" t="s">
         <v>265</v>
@@ -5215,7 +5215,7 @@
         <v>28270</v>
       </c>
       <c r="B35" t="n">
-        <v>135540</v>
+        <v>166459</v>
       </c>
       <c r="C35" t="s">
         <v>272</v>
@@ -5286,7 +5286,7 @@
         <v>28270</v>
       </c>
       <c r="B36" t="n">
-        <v>135541</v>
+        <v>166460</v>
       </c>
       <c r="C36" t="s">
         <v>280</v>
@@ -5357,7 +5357,7 @@
         <v>28270</v>
       </c>
       <c r="B37" t="n">
-        <v>135542</v>
+        <v>166461</v>
       </c>
       <c r="C37" t="s">
         <v>286</v>
@@ -5428,7 +5428,7 @@
         <v>28270</v>
       </c>
       <c r="B38" t="n">
-        <v>135543</v>
+        <v>166462</v>
       </c>
       <c r="C38" t="s">
         <v>291</v>
@@ -5560,7 +5560,7 @@
         <v>28270</v>
       </c>
       <c r="B40" t="n">
-        <v>135544</v>
+        <v>166463</v>
       </c>
       <c r="C40" t="s">
         <v>306</v>
@@ -5629,7 +5629,7 @@
         <v>28270</v>
       </c>
       <c r="B41" t="n">
-        <v>135545</v>
+        <v>166464</v>
       </c>
       <c r="C41" t="s">
         <v>313</v>
@@ -5700,7 +5700,7 @@
         <v>28270</v>
       </c>
       <c r="B42" t="n">
-        <v>135546</v>
+        <v>166465</v>
       </c>
       <c r="C42" t="s">
         <v>320</v>
@@ -5842,7 +5842,7 @@
         <v>28270</v>
       </c>
       <c r="B44" t="n">
-        <v>135547</v>
+        <v>166466</v>
       </c>
       <c r="C44" t="s">
         <v>333</v>
@@ -5913,7 +5913,7 @@
         <v>28270</v>
       </c>
       <c r="B45" t="n">
-        <v>135548</v>
+        <v>166467</v>
       </c>
       <c r="C45" t="s">
         <v>341</v>
@@ -5984,7 +5984,7 @@
         <v>28270</v>
       </c>
       <c r="B46" t="n">
-        <v>135549</v>
+        <v>166468</v>
       </c>
       <c r="C46" t="s">
         <v>347</v>
@@ -6055,7 +6055,7 @@
         <v>28270</v>
       </c>
       <c r="B47" t="n">
-        <v>135550</v>
+        <v>166469</v>
       </c>
       <c r="C47" t="s">
         <v>354</v>
@@ -6116,7 +6116,7 @@
         <v>28270</v>
       </c>
       <c r="B48" t="n">
-        <v>135551</v>
+        <v>166470</v>
       </c>
       <c r="C48" t="s">
         <v>360</v>
@@ -6394,7 +6394,7 @@
         <v>28270</v>
       </c>
       <c r="B52" t="n">
-        <v>135552</v>
+        <v>166471</v>
       </c>
       <c r="C52" t="s">
         <v>387</v>
@@ -6526,7 +6526,7 @@
         <v>28270</v>
       </c>
       <c r="B54" t="n">
-        <v>135553</v>
+        <v>166472</v>
       </c>
       <c r="C54" t="s">
         <v>399</v>
@@ -6587,7 +6587,7 @@
         <v>28270</v>
       </c>
       <c r="B55" t="n">
-        <v>135554</v>
+        <v>166473</v>
       </c>
       <c r="C55" t="s">
         <v>405</v>
@@ -6650,7 +6650,7 @@
         <v>28270</v>
       </c>
       <c r="B56" t="n">
-        <v>135555</v>
+        <v>166474</v>
       </c>
       <c r="C56" t="s">
         <v>411</v>
@@ -6788,7 +6788,7 @@
         <v>28270</v>
       </c>
       <c r="B58" t="n">
-        <v>135556</v>
+        <v>166475</v>
       </c>
       <c r="C58" t="s">
         <v>424</v>
@@ -6859,7 +6859,7 @@
         <v>28270</v>
       </c>
       <c r="B59" t="n">
-        <v>135557</v>
+        <v>166476</v>
       </c>
       <c r="C59" t="s">
         <v>430</v>
@@ -6930,7 +6930,7 @@
         <v>28270</v>
       </c>
       <c r="B60" t="n">
-        <v>135558</v>
+        <v>166477</v>
       </c>
       <c r="C60" t="s">
         <v>437</v>
@@ -7001,7 +7001,7 @@
         <v>28270</v>
       </c>
       <c r="B61" t="n">
-        <v>135559</v>
+        <v>166478</v>
       </c>
       <c r="C61" t="s">
         <v>443</v>
@@ -7072,7 +7072,7 @@
         <v>28270</v>
       </c>
       <c r="B62" t="n">
-        <v>135560</v>
+        <v>166479</v>
       </c>
       <c r="C62" t="s">
         <v>451</v>
@@ -7214,7 +7214,7 @@
         <v>28270</v>
       </c>
       <c r="B64" t="n">
-        <v>135561</v>
+        <v>166480</v>
       </c>
       <c r="C64" t="s">
         <v>465</v>
@@ -7285,7 +7285,7 @@
         <v>28270</v>
       </c>
       <c r="B65" t="n">
-        <v>135562</v>
+        <v>166481</v>
       </c>
       <c r="C65" t="s">
         <v>472</v>
@@ -7356,7 +7356,7 @@
         <v>28270</v>
       </c>
       <c r="B66" t="n">
-        <v>135563</v>
+        <v>166482</v>
       </c>
       <c r="C66" t="s">
         <v>478</v>
@@ -7427,7 +7427,7 @@
         <v>28270</v>
       </c>
       <c r="B67" t="n">
-        <v>135564</v>
+        <v>166483</v>
       </c>
       <c r="C67" t="s">
         <v>483</v>
@@ -7498,7 +7498,7 @@
         <v>28270</v>
       </c>
       <c r="B68" t="n">
-        <v>135565</v>
+        <v>166484</v>
       </c>
       <c r="C68" t="s">
         <v>489</v>
@@ -7569,7 +7569,7 @@
         <v>28270</v>
       </c>
       <c r="B69" t="n">
-        <v>135566</v>
+        <v>166485</v>
       </c>
       <c r="C69" t="s">
         <v>496</v>
@@ -7778,7 +7778,7 @@
         <v>28270</v>
       </c>
       <c r="B72" t="n">
-        <v>135567</v>
+        <v>166486</v>
       </c>
       <c r="C72" t="s">
         <v>515</v>
@@ -7849,7 +7849,7 @@
         <v>28270</v>
       </c>
       <c r="B73" t="n">
-        <v>135568</v>
+        <v>166487</v>
       </c>
       <c r="C73" t="s">
         <v>523</v>
@@ -7920,7 +7920,7 @@
         <v>28270</v>
       </c>
       <c r="B74" t="n">
-        <v>135569</v>
+        <v>166488</v>
       </c>
       <c r="C74" t="s">
         <v>529</v>
@@ -7991,7 +7991,7 @@
         <v>28270</v>
       </c>
       <c r="B75" t="n">
-        <v>135570</v>
+        <v>166489</v>
       </c>
       <c r="C75" t="s">
         <v>537</v>
@@ -8271,7 +8271,7 @@
         <v>28270</v>
       </c>
       <c r="B79" t="n">
-        <v>135571</v>
+        <v>166490</v>
       </c>
       <c r="C79" t="s">
         <v>563</v>
@@ -8336,7 +8336,7 @@
         <v>28270</v>
       </c>
       <c r="B80" t="n">
-        <v>135572</v>
+        <v>166491</v>
       </c>
       <c r="C80" t="s">
         <v>569</v>
@@ -8608,7 +8608,7 @@
         <v>28270</v>
       </c>
       <c r="B84" t="n">
-        <v>135573</v>
+        <v>166492</v>
       </c>
       <c r="C84" t="s">
         <v>596</v>
@@ -8959,7 +8959,7 @@
         <v>28270</v>
       </c>
       <c r="B89" t="n">
-        <v>135574</v>
+        <v>166493</v>
       </c>
       <c r="C89" t="s">
         <v>628</v>
@@ -9034,7 +9034,7 @@
         <v>28270</v>
       </c>
       <c r="B90" t="n">
-        <v>135575</v>
+        <v>166494</v>
       </c>
       <c r="C90" t="s">
         <v>638</v>
@@ -9184,7 +9184,7 @@
         <v>28270</v>
       </c>
       <c r="B92" t="n">
-        <v>135576</v>
+        <v>166495</v>
       </c>
       <c r="C92" t="s">
         <v>655</v>
@@ -9334,7 +9334,7 @@
         <v>28270</v>
       </c>
       <c r="B94" t="n">
-        <v>135577</v>
+        <v>166496</v>
       </c>
       <c r="C94" t="s">
         <v>672</v>
@@ -9555,7 +9555,7 @@
         <v>28270</v>
       </c>
       <c r="B97" t="n">
-        <v>135578</v>
+        <v>166497</v>
       </c>
       <c r="C97" t="s">
         <v>694</v>
@@ -9630,7 +9630,7 @@
         <v>28270</v>
       </c>
       <c r="B98" t="n">
-        <v>135579</v>
+        <v>166498</v>
       </c>
       <c r="C98" t="s">
         <v>702</v>
@@ -9847,7 +9847,7 @@
         <v>28270</v>
       </c>
       <c r="B101" t="n">
-        <v>135580</v>
+        <v>166499</v>
       </c>
       <c r="C101" t="s">
         <v>720</v>
@@ -9991,7 +9991,7 @@
         <v>28270</v>
       </c>
       <c r="B103" t="n">
-        <v>135581</v>
+        <v>166500</v>
       </c>
       <c r="C103" t="s">
         <v>734</v>
@@ -10133,7 +10133,7 @@
         <v>28270</v>
       </c>
       <c r="B105" t="n">
-        <v>135582</v>
+        <v>166501</v>
       </c>
       <c r="C105" t="s">
         <v>747</v>
@@ -10275,7 +10275,7 @@
         <v>28270</v>
       </c>
       <c r="B107" t="n">
-        <v>135583</v>
+        <v>166502</v>
       </c>
       <c r="C107" t="s">
         <v>761</v>
@@ -10346,7 +10346,7 @@
         <v>28270</v>
       </c>
       <c r="B108" t="n">
-        <v>135584</v>
+        <v>166503</v>
       </c>
       <c r="C108" t="s">
         <v>769</v>
@@ -10417,7 +10417,7 @@
         <v>28270</v>
       </c>
       <c r="B109" t="n">
-        <v>135585</v>
+        <v>166504</v>
       </c>
       <c r="C109" t="s">
         <v>776</v>
@@ -10484,7 +10484,7 @@
         <v>28270</v>
       </c>
       <c r="B110" t="n">
-        <v>135586</v>
+        <v>166505</v>
       </c>
       <c r="C110" t="s">
         <v>782</v>
@@ -10555,7 +10555,7 @@
         <v>28270</v>
       </c>
       <c r="B111" t="n">
-        <v>135587</v>
+        <v>166506</v>
       </c>
       <c r="C111" t="s">
         <v>790</v>
